--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\WebExp\WebExperiment\profilePresntaion\myUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stavw\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7298288-7070-46FB-9597-5D17E3196100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED0697E-E4A8-471E-B0C2-A425EEA5E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1365" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>phase</t>
   </si>
@@ -42,9 +42,6 @@
     <t>During Get Profile</t>
   </si>
   <si>
-    <t>Matrix tutorial</t>
-  </si>
-  <si>
     <t>Pre Profile Presentation</t>
   </si>
   <si>
@@ -76,30 +73,6 @@
   </si>
   <si>
     <t>irrelevant</t>
-  </si>
-  <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>במידה ואת.ה תבחר.י - {} - והאדם השני יבחר - {}, כמה את.ה תקבל.י?</t>
-  </si>
-  <si>
-    <t>במידה ואת.ה תבחר.י - {} - והאדם השני יבחר - {}, כמה האדם השני יקבל?</t>
-  </si>
-  <si>
-    <t>במהלך הניסוי יוצגו לך פרופילים של אנשים שונים. לאחר שתתבונן בפרופיל של כל אדם, תשחק מול משחק הקשור לסיואציה בו אתם כביכול נפגשים. המשחק מתאר שתי בחירות אפשריות שלך  ושתי בחירות אפשריות של האחר. עבור כל שילוב של שתי בחירות ישנה תוצאה אשר מיוצגת במספר, תוצאה עבורך ותוצאה עבור האחר. לחץ על הכפתור Ready to play על מנת להתבונן במשחק</t>
-  </si>
-  <si>
-    <t>יפה מאוד! כאשר אתה לוחץ על אחת השורות, זה אומר שבחרת באפשרות הזו. כמה שתקבל תלוי במה יבחר השחקן השני. בזמן שאתה מבצע את בחירתך אינך יכול לראות מה השחקן השני בחר, אך גם כשאר השחקן השני בוחר, אתה לא יכול לראות את הבחירה שלו. תוצאות המשחק יקבעו רק לאחר מכן. בוא נמשיך בלמידה - לחץ עכשיו על האופציה העליונה.</t>
-  </si>
-  <si>
-    <t>מעולה! כעת, ענה על השאלות שמופיעות מטה. בכל שאלה תצטרך לומר כמה אתה או השחק האחר יקבלו עבור שילוב מסוים של שתי אפשרויות, הבחירה שלך והבחירה של האחר.</t>
-  </si>
-  <si>
-    <t>במשחק זה אתה יכול לבחור בין {} , לבין {} וכך גם האדם השני. כל אחד מכם בוחר לפי ראות עיניו, ומתוך הניסיון להגיע לתוצאה הטובה ביותר עבורו. אתה יכול לבחור או בשורה הראשונה ({}) או בשורה השניה ({}). כך גם השחקן השני, אל שהוא יכול לבחור בין הטור הימני לשמאלי. בכל צירוף של שתי בחירות רשום כמה אתה תקבל וכמה האחר. התוצאה שלך רשומה תמיד מצד שמאל. לצורך בדיקת הבנה - בחר כעת את השורה התחונה - {}.</t>
   </si>
   <si>
     <t>Identification Task</t>
@@ -137,6 +110,30 @@
 כל שאלה תעסוק במאפיין שונה שלך, למשל תכונות אופי ואישיות, תחביבים וכדומה.
 התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר\י יתאר אותך בצורה הטובה והמדויקת ביותר.
  לאחר בחירת מיקום הסמן, לחצ\י על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>Get Min Max Similarity</t>
+  </si>
+  <si>
+    <t>הוראות לדיווחי עוגנים</t>
+  </si>
+  <si>
+    <t>דווח על המקסימום</t>
+  </si>
+  <si>
+    <t>דווח על המינימום</t>
+  </si>
+  <si>
+    <t>MaxName</t>
+  </si>
+  <si>
+    <t>MinName</t>
+  </si>
+  <si>
+    <t>MaxValue</t>
+  </si>
+  <si>
+    <t>MinValue</t>
   </si>
 </sst>
 </file>
@@ -147,7 +144,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,7 +152,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -466,203 +463,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stavw\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED0697E-E4A8-471E-B0C2-A425EEA5E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9B6E6-C085-45D6-8BB8-B2B039E0362A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1365" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="82">
   <si>
     <t>phase</t>
   </si>
@@ -48,19 +48,7 @@
     <t>During Profile Presentation</t>
   </si>
   <si>
-    <t>end</t>
-  </si>
-  <si>
     <t>לפני שמתחילים</t>
-  </si>
-  <si>
-    <t>בזמו שמוצג</t>
-  </si>
-  <si>
-    <t>לפני הצגת  הפרופיל</t>
-  </si>
-  <si>
-    <t>בזמן הצגת הפרופיל</t>
   </si>
   <si>
     <t>הסוף</t>
@@ -91,11 +79,6 @@
 המטלה שלך היא להתבונן היטב בשני הפרופילים, ולזהות מה הוא הפרופיל שלך.</t>
   </si>
   <si>
-    <t>לאחר כ-30 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "זה הפרופיל שלי". אם תאה חושב שפרופיל ימין הוא הפרופיל שלך בחר בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחר בכפתור השמאלי אם אתה חושב שהפרופיל שלך הוא השמאלי. 
-קח את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עבור 30 שניות.
-כאשר תלחץ על הכפתור יתחלפו הפרופילים ותצטרך לבחור שוב.</t>
-  </si>
-  <si>
     <t xml:space="preserve">כעת תבצע מטלה מאוד דומה למטלה שביצע קודם, אלא שהשינוי המרכזי כאן הוא שלא תצטרף להמתין 30 שניות, אלא תצטרך להגיב כמה שיותר מהר. כלומר, ברגע שיופיעו שני הפרופילים, באופן אוטומטי גם יופיעו שני הכפתורים. המטרה שלך תהיה להחליט כמה שיותר מהר באיזה צד מופיע הפרופיל שלך וללחוץ על הכפתור שנמצא בצד המתאים.
 שים לב, עליך לדייק ויחד עם זאת להגיב במהירות. </t>
   </si>
@@ -106,34 +89,248 @@
     <t>preQuickPhase</t>
   </si>
   <si>
-    <t>בחלק זה של הניסוי זה תתבקש\י לענות על מספר שאלות.
+    <t>Get Min Max Similarity</t>
+  </si>
+  <si>
+    <t>MaxName</t>
+  </si>
+  <si>
+    <t>MinName</t>
+  </si>
+  <si>
+    <t>MaxValue</t>
+  </si>
+  <si>
+    <t>MinValue</t>
+  </si>
+  <si>
+    <t>text_he_male</t>
+  </si>
+  <si>
+    <t>text_he_female</t>
+  </si>
+  <si>
+    <t>השאלון שעליו אתה עומד לענות הוא חלק ממחקר פסיכולוגי שבוחן את הרגשות והחוויות בחיי היום יום.
+אתה חופשי לחלוטין להחליט האם אתה מעוניין להשתתף במחקר.
+במידה ותחליט  להשתתף, אתה רשאי להחליט להפסיק לגמרי את השתתפותך במחקר בכל שלב.
+נדגיש גם כי לא תתבקש למסור פרטים מזהים בשאלון זה, על כן תשובותיך ישמרו באופן אנונימי.
+ככל הידוע השתתפות במחקר אינה כרוכה בסיכונים כלשהם.
+אם ברצונך לשמור עותק מדף זה, ניתן להדפיס את העמוד כעת.</t>
+  </si>
+  <si>
+    <t>השאלון שעליו את עומדת לענות הוא חלק ממחקר פסיכולוגי שבוחן את הרגשות והחוויות בחיי היום יום.
+את חופשיה לחלוטין להחליט האם את מעוניית להשתתף במחקר.
+במידה ותחליטי להשתתף, את רשאית להחליט להפסיק לגמרי את השתתפותך במחקר בכל שלב.
+נדגיש גם כי לא תתבקשי למסור פרטים מזהים בשאלון זה, על כן תשובותיך ישמרו באופן אנונימי.
+ככל הידוע השתתפות במחקר אינה כרוכה בסיכונים כלשהם.
+אם ברצונך לשמור עותק מדף זה, ניתן להדפיס את העמוד כעת.</t>
+  </si>
+  <si>
+    <t>checkboxTitle</t>
+  </si>
+  <si>
+    <t>בסימון התיבה שלמטה את מסכימה לנאמר במשפטים הבאים</t>
+  </si>
+  <si>
+    <t>בסימון התיבה שלמטה אתה מסכים לנאמר במשפטים הבאים</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>privacy</t>
+  </si>
+  <si>
+    <t>קראתי את עמוד זה</t>
+  </si>
+  <si>
+    <t>אני בן 18 או יותר</t>
+  </si>
+  <si>
+    <t>אני משתתף במחקר מרצוני החופשי</t>
+  </si>
+  <si>
+    <t>קראתי את מדיניות הפרטיות של האתר</t>
+  </si>
+  <si>
+    <t>אני בת 18 או יותר</t>
+  </si>
+  <si>
+    <t>אני משתתפת במחקר מרצוני החופשי</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>תודה על השתתפותך בניסוי!</t>
+  </si>
+  <si>
+    <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
+קח זמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו.ה</t>
+  </si>
+  <si>
+    <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
+קח זמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום את ראשי התיבות של שמו.ה</t>
+  </si>
+  <si>
+    <t>lowSimilarity</t>
+  </si>
+  <si>
+    <t>highSimilarity</t>
+  </si>
+  <si>
+    <t>דמיון נמוך ביותר</t>
+  </si>
+  <si>
+    <t>דמיון גבוה ביותר</t>
+  </si>
+  <si>
+    <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחרי את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
+קח זמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו.ה</t>
+  </si>
+  <si>
+    <t>askMax</t>
+  </si>
+  <si>
+    <t>askMin</t>
+  </si>
+  <si>
+    <t>reportMaxSimilarity</t>
+  </si>
+  <si>
+    <t>reportMinSimilarity</t>
+  </si>
+  <si>
+    <t>End Screen</t>
+  </si>
+  <si>
+    <t>חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
+אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בסמן על מנת לקרב או להרחיק את העיגולים. 
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בסמן על מנת לקרב או להרחיק את העיגולים. 
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
+קחי זמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו.ה</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקש לענות על מספר שאלות.
 כל שאלה תעסוק במאפיין שונה שלך, למשל תכונות אופי ואישיות, תחביבים וכדומה.
-התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר\י יתאר אותך בצורה הטובה והמדויקת ביותר.
- לאחר בחירת מיקום הסמן, לחצ\י על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>Get Min Max Similarity</t>
-  </si>
-  <si>
-    <t>הוראות לדיווחי עוגנים</t>
-  </si>
-  <si>
-    <t>דווח על המקסימום</t>
-  </si>
-  <si>
-    <t>דווח על המינימום</t>
-  </si>
-  <si>
-    <t>MaxName</t>
-  </si>
-  <si>
-    <t>MinName</t>
-  </si>
-  <si>
-    <t>MaxValue</t>
-  </si>
-  <si>
-    <t>MinValue</t>
+התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
+ לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
+כל שאלה תעסוק במאפיין שונה שלך, למשל תכונות אופי ואישיות, תחביבים וכדומה.
+התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר אותך בצורה הטובה והמדויקת ביותר.
+ לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>לאחר כ-30 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "אני". אם את חושבת שפרופיל ימין הוא הפרופיל שלך בחרי בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחרי בכפתור השמאלי אם את חושבת שהפרופיל שלך הוא השמאלי. 
+קחי את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עברו 30 שניות.
+כאשר תלחצי על הכפתור יתחלפו הפרופילים ותצטרכי לבחור שוב.</t>
+  </si>
+  <si>
+    <t>לאחר כ-30 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "זה הפרופיל שלי". אם תאה חושב שפרופיל ימין הוא הפרופיל שלך בחר בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחר בכפתור השמאלי אם אתה חושב שהפרופיל שלך הוא השמאלי. 
+קח את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עברו 30 שניות.
+כאשר תלחץ על הכפתור יתחלפו הפרופילים ותצטרך לבחור שוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כעת תבצע מטלה מאוד דומה למטלה שביצע קודם, אלא שהשינוי המרכזי כאן הוא שלא תצטרך להמתין 30 שניות, אלא תצטרך להגיב כמה שיותר מהר. כלומר, ברגע שיופיעו שני הפרופילים, באופן אוטומטי גם יופיעו שני הכפתורים. המטרה שלך תהיה להחליט כמה שיותר מהר באיזה צד מופיע הפרופיל שלך וללחוץ על הכפתור שנמצא בצד המתאים.
+שים לב, עליך לדייק ויחד עם זאת להגיב במהירות. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כעת תבצעי מטלה מאוד דומה למטלה שביצעת קודם, אלא שהשינוי המרכזי כאן הוא שלא תצטרכי להמתין 30 שניות, אלא תצטרכי להגיב כמה שיותר מהר. כלומר, ברגע שיופיעו שני הפרופילים, באופן אוטומטי גם יופיעו שני הכפתורים. המטרה שלך תהיה להחליט כמה שיותר מהר באיזה צד מופיע הפרופיל שלך וללחוץ על הכפתור שנמצא בצד המתאים.
+שימי לב, עליך לדייק ויחד עם זאת להגיב במהירות. </t>
+  </si>
+  <si>
+    <t>OnFeaturesSetC</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקש לענות על מספר שאלות.
+כל שאלה תעסוק בהעדפות שלך בנושאים שונים.
+התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
+ לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
+כל שאלה תעסוק בהעדפות שלך בנושאים שונים.
+התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר אותך בצורה הטובה והמדויקת ביותר.
+ לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>כעת תתבקש לענות על אותן השאלות עבור {}, לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>Pre Get Max Profile</t>
+  </si>
+  <si>
+    <t>Pre Get Min Profile</t>
+  </si>
+  <si>
+    <t>כעת תתבקשי לענות על אותן השאלות עבור {}, לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בשלב זה תצפה במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונן היטב בפרופיל, ולאחר מכן הערך את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
+בשלב הראשון אתה מתבקש לצפות בפרופיל ולהשתמש בתיבת הטקסט הלבנה על מנת לכתוב תיאור קצר של התרשמותך מהפרופיל. כלומר, כתוב מי הוא אותו אדם, איך היית מתאר אותו ומה אתה חושב עליו. שים לב, עליך להתייחס לכל התכונות המוצגות.
+הכתיבה נועדה בשביל לעזור לך להעריך עד כמה אתה מרגיש שאתם דומים, לכן, השתמש בשפה הנוחה לך ביותר לתיאור זה. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בשלב זה תצפי במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונני היטב בפרופיל, ולאחר מכן העריכי את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
+בשלב הראשון את מתבקשת לצפות בפרופיל ולהשתמש בתיבת הטקסט הלבנה על מנת לכתוב תיאור קצר של התרשמותך מהפרופיל. כלומר, כתבי מי הוא אותו אדם, איך היית מתארת אותו ומה את חושבת עליו. שימי לב, עליך להתייחס לכל התכונות המוצגות.
+הכתיבה נועדה בשביל לעזור לך להעריך עד כמה את מרגישה שאתם דומים, לכן, השתמשי בשפה הנוחה לך ביותר לתיאור זה. </t>
+  </si>
+  <si>
+    <t>כשתסיים לכתוב גלול את המסך כלפי מטה ושם יוצגו שני עיגולים. עליך להשתמש בסמן על מנת להגדיל או להקטין את מידת החפיפה ביניהם כדי לדווח עד כמה אתה מרגיש שאתה והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. 
+שים לב שעל גבי הקו הרציף גם מופיעות ראשי התיבות של שני האנשים, הדומה והשונה ביותר ממך, במקומות התואמים את הגדרתך. תוכל כמובן גם להיעזר במיקומים אלו כדי לדייק בדירוג תחושת הדמיון.</t>
+  </si>
+  <si>
+    <t>כשתסיימי לכתוב גללי את המסך כלפי מטה ושם יוצגו שני עיגולים. עליך להשתמש בסמן על מנת להגדיל או להקטין את מידת החפיפה ביניהם כדי לדווח עד כמה את מרגישה שאת והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. 
+שימי לב שעל גבי הקו הרציף גם מופיעות ראשי התיבות של שני האנשים, הדומה והשונה ביותר ממך, במקומות התואמים את הגדרתך. תוכלי כמובן גם להיעזר במיקומים אלו כדי לדייק בדירוג תחושת הדמיון.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בסוף הניסוי תקבלי תשלום כספי נוסף כתלות בביצועיך במהלך הניסוי!
+בניסוי משולבים מדדים אשר מעריכים את מידת העקביות שלך. ככל שתהי עקבית ומדויקת יותר, כך התשלום הכספי הנוסף יהיה גדול יותר. חשוב מאוד שהערכת הדמיון שלך תהיה מבוססת על חווייתך האישית האמיתית.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בסוף הניסוי תקבל תשלום כספי נוסף כתלות בביצועיך במהלך הניסוי!
+בניסוי משולבים מדדים אשר מעריכים את מידת העקביות שלך. ככל שתהיה עקבי ומדויק יותר, כך התשלום הכספי הנוסף יהיה גדול יותר. חשוב מאוד שהערכת הדמיון שלך תהיה מבוססת על חווייתך האישית האמיתית.
+</t>
+  </si>
+  <si>
+    <t>כעת אתה מתבקש לדרג את מידת הדמיון בינך לבין האדם האחר	
+השתמש בסמן על מנת לקרב או להרחיק את העיגולים.
+ככל שמידת החפיפה גדולה יותר - כך הדמיון גדול יותר.
+שים לב שעל גבי הקו הרציף גם מופיעות ראשי התיבות של שני האנשים, הדומה והשונה ביותר ממך, במקומות התואמים את הגדרתך. תוכל כמובן גם להיעזר במיקומים אלו כדי לדייק בדירוג תחושת הדמיון.</t>
+  </si>
+  <si>
+    <t>כעת את מתבקשת לדרג את מידת הדמיון בינך לבין האדם האחר	
+השתמש בסמן על מנת לקרב או להרחיק את העיגולים.
+ככל שמידת החפיפה גדולה יותר - כך הדמיון גדול יותר.
+שימי לב שעל גבי הקו הרציף גם מופיעות ראשי התיבות של שני האנשים, הדומה והשונה ביותר ממך, במקומות התואמים את הגדרתך. תוכלי כמובן גם להיעזר במיקומים אלו כדי לדייק בדירוג תחושת הדמיון.</t>
+  </si>
+  <si>
+    <t>practiceTrialsInstructions</t>
+  </si>
+  <si>
+    <t>onError</t>
+  </si>
+  <si>
+    <t>הייתה לך טעות</t>
   </si>
 </sst>
 </file>
@@ -144,7 +341,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -152,7 +349,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -177,11 +374,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,192 +678,751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.375" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C28" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9B6E6-C085-45D6-8BB8-B2B039E0362A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3165E60D-87BA-4955-AC68-C96BB4FAA46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
   <si>
     <t>phase</t>
   </si>
@@ -331,6 +331,23 @@
   </si>
   <si>
     <t>הייתה לך טעות</t>
+  </si>
+  <si>
+    <t>Pre Get Ideal Profile</t>
+  </si>
+  <si>
+    <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
+בחלק זה של הניסוי זה תתבקש לענות פעם נוספת על אותן שאלות כמו בהתחלה 
+אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקש לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאתה בפועל. 
+התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר את המקום אליו אתה שואף ואיך שהיית במצב אידאלי.
+ לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
+בחלק זה של הניסוי זה תתבקשי לענות פעם נוספת על אותן שאלות כמו בהתחלה 
+אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקשי לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאת בפועל. 
+התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר את המקום אליו את שואף ואיך שהיית במצב אידאלי.
+ לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
   </si>
 </sst>
 </file>
@@ -678,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +732,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -757,7 +774,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -841,7 +858,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -883,7 +900,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -904,7 +921,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -925,7 +942,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -946,7 +963,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -967,7 +984,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
@@ -988,7 +1005,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -1135,7 +1152,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
@@ -1156,7 +1173,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
@@ -1198,7 +1215,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -1408,20 +1425,41 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3165E60D-87BA-4955-AC68-C96BB4FAA46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA112280-CCC1-4C1E-B694-0BDD78A640A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
   <si>
     <t>phase</t>
   </si>
@@ -39,16 +48,10 @@
     <t>Pre Get Profile</t>
   </si>
   <si>
-    <t>During Get Profile</t>
-  </si>
-  <si>
     <t>Pre Profile Presentation</t>
   </si>
   <si>
     <t>During Profile Presentation</t>
-  </si>
-  <si>
-    <t>לפני שמתחילים</t>
   </si>
   <si>
     <t>הסוף</t>
@@ -227,18 +230,6 @@
     <t>---</t>
   </si>
   <si>
-    <t>בחלק זה של הניסוי זה תתבקש לענות על מספר שאלות.
-כל שאלה תעסוק במאפיין שונה שלך, למשל תכונות אופי ואישיות, תחביבים וכדומה.
-התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
- לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
-כל שאלה תעסוק במאפיין שונה שלך, למשל תכונות אופי ואישיות, תחביבים וכדומה.
-התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר אותך בצורה הטובה והמדויקת ביותר.
- לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
     <t>לאחר כ-30 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "אני". אם את חושבת שפרופיל ימין הוא הפרופיל שלך בחרי בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחרי בכפתור השמאלי אם את חושבת שהפרופיל שלך הוא השמאלי. 
 קחי את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עברו 30 שניות.
 כאשר תלחצי על הכפתור יתחלפו הפרופילים ותצטרכי לבחור שוב.</t>
@@ -255,21 +246,6 @@
   <si>
     <t xml:space="preserve">כעת תבצעי מטלה מאוד דומה למטלה שביצעת קודם, אלא שהשינוי המרכזי כאן הוא שלא תצטרכי להמתין 30 שניות, אלא תצטרכי להגיב כמה שיותר מהר. כלומר, ברגע שיופיעו שני הפרופילים, באופן אוטומטי גם יופיעו שני הכפתורים. המטרה שלך תהיה להחליט כמה שיותר מהר באיזה צד מופיע הפרופיל שלך וללחוץ על הכפתור שנמצא בצד המתאים.
 שימי לב, עליך לדייק ויחד עם זאת להגיב במהירות. </t>
-  </si>
-  <si>
-    <t>OnFeaturesSetC</t>
-  </si>
-  <si>
-    <t>בחלק זה של הניסוי זה תתבקש לענות על מספר שאלות.
-כל שאלה תעסוק בהעדפות שלך בנושאים שונים.
-התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
- לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
-כל שאלה תעסוק בהעדפות שלך בנושאים שונים.
-התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר אותך בצורה הטובה והמדויקת ביותר.
- לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
   </si>
   <si>
     <t>כעת תתבקש לענות על אותן השאלות עבור {}, לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
@@ -328,9 +304,6 @@
   </si>
   <si>
     <t>onError</t>
-  </si>
-  <si>
-    <t>הייתה לך טעות</t>
   </si>
   <si>
     <t>Pre Get Ideal Profile</t>
@@ -348,6 +321,71 @@
 אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקשי לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאת בפועל. 
 התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר את המקום אליו את שואף ואיך שהיית במצב אידאלי.
  לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>כל שאלה תעסוק במאפיין שונה שלך, למשל תכונות אופי ואישיות, תחביבים וכדומה.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקש לענות על מספר שאלות.
+{}
+התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
+ לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
+{}
+התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר אותך בצורה הטובה והמדויקת ביותר.
+ לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>כל שאלה תעסוק בהעדפות שלך בנושאים שונים.</t>
+  </si>
+  <si>
+    <t>pitctures_names</t>
+  </si>
+  <si>
+    <t>full_screen_1.jpg, full_screen_2.jpg</t>
+  </si>
+  <si>
+    <t>לפני שתתחיל בניסוי נבקש מספר דברים:
+ראשית, וודא כי אתה נמצא בחדר שקט ושלא יהיו לך בו הפרעות שונות
+העבר את הטלפון הנייד שלך למצב שקט והכנס אותו לתיק או הוצא אותו מהחדר
+וודא כי אתה משתמש במחשב ולא בטלפון חכם או טאבלט
+שב בצורה נוחה מול מסך המחשב
+וודא שיש ברשותך כ___, זהו הזמן המשוער שייקח על מנת לסיים את הניסוי
+העבר את המסך למצב "מסך מלא" והשאר אותו במצב זה עד לסוף הניסוי. 
+על מנת להעביר למסך מלא יש ללחוץ על הכפתור F11. התבונן בתמונות המופיעות בהמשך עמוד זה במידת הצורך. 
+לאחר שהעברת למצב מסך מלא, לחץ על הכפתור "הבא" המופיע בתחתית המסך. 
+במידת הצורך פנה לנסיינ.ית לעזרה.</t>
+  </si>
+  <si>
+    <t>לפני שתתחיל בניסוי נבקש מספר דברים:
+ראשית, וודאי כי את נמצאת בחדר שקט ושלא יהיו לך בו הפרעות שונות
+העבירי את הטלפון הנייד שלך למצב שקט והכניסי אותו לתיק או הוציאי אותו מהחדר
+וודאי כי את משתמשת במחשב ולא בטלפון חכם או טאבלט
+שבי בצורה נוחה מול מסך המחשב
+וודאי שיש ברשותך כ___, זהו הזמן המשוער שייקח על מנת לסיים את הניסוי
+העבירי את המסך למצב "מסך מלא" והשאירי אותו במצב זה עד לסוף הניסוי. 
+על מנת להעביר למסך מלא יש ללחוץ על הכפתור F11. התבונני בתמונות המופיעות בהמשך עמוד זה במידת הצורך. 
+לאחר שהעברת למצב מסך מלא, לחצי על הכפתור "הבא" המופיע בתחתית המסך. 
+במידת הצורך פני לנסיינ.ית לעזרה.</t>
+  </si>
+  <si>
+    <t>המחשב בדק את תשובותיך ומצב כי מספר הפעמים בהם לא זיהית נכונה את הפרופיל שלך חרג מעבר לכמות המותרת. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכלי להמשיך בניסוי. 
+אנא קראי היטב את ההוראות שיוצגו בפניך.</t>
+  </si>
+  <si>
+    <t>המחשב בדק את תשובותיך ומצב כי מספר הפעמים בהם לא זיהית נכונה את הפרופיל שלך חרג מעבר לכמות המותרת. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכל להמשיך בניסוי. 
+אנא קרא היטב את ההוראות שיוצגו בפניך.</t>
   </si>
 </sst>
 </file>
@@ -695,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,18 +753,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -737,16 +777,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -758,16 +798,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -779,16 +819,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -800,16 +840,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -821,16 +861,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -842,16 +882,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -863,58 +903,60 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -923,19 +965,19 @@
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -944,19 +986,19 @@
     </row>
     <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -965,19 +1007,19 @@
     </row>
     <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -986,19 +1028,19 @@
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1007,19 +1049,19 @@
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1028,19 +1070,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1049,19 +1091,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1070,19 +1112,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1091,19 +1133,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="C19" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1112,19 +1154,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1133,250 +1175,250 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>57</v>
+        <v>78</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1385,82 +1427,103 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>78</v>
+        <v>43</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA112280-CCC1-4C1E-B694-0BDD78A640A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3692D7B-D1A1-4F46-AC52-08539A0D18E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
   <si>
     <t>phase</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>אני משתתף במחקר מרצוני החופשי</t>
-  </si>
-  <si>
-    <t>קראתי את מדיניות הפרטיות של האתר</t>
   </si>
   <si>
     <t>אני בת 18 או יותר</t>
@@ -386,6 +383,12 @@
   <si>
     <t>המחשב בדק את תשובותיך ומצב כי מספר הפעמים בהם לא זיהית נכונה את הפרופיל שלך חרג מעבר לכמות המותרת. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכל להמשיך בניסוי. 
 אנא קרא היטב את ההוראות שיוצגו בפניך.</t>
+  </si>
+  <si>
+    <t>מאשרת את הפרטים הנ''ל ומסכימה מרצוני החופשי להשתתף בניסוי זה</t>
+  </si>
+  <si>
+    <t>מאשר את הפרטים הנ''ל ומסכים מרצוני החופשי להשתתף בניסוי זה</t>
   </si>
 </sst>
 </file>
@@ -735,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +768,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -798,16 +801,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -870,7 +873,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -891,14 +894,14 @@
         <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -906,13 +909,13 @@
         <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -927,16 +930,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -947,16 +950,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -968,16 +971,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -989,16 +992,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1010,16 +1013,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1028,19 +1031,19 @@
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1049,19 +1052,19 @@
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1076,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1094,16 +1097,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1115,16 +1118,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1139,13 +1142,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1160,13 +1163,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1181,13 +1184,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1202,13 +1205,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1220,16 +1223,16 @@
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1241,16 +1244,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1262,16 +1265,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1307,13 +1310,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1325,16 +1328,16 @@
         <v>14</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1352,10 +1355,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1370,13 +1373,13 @@
         <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1391,13 +1394,13 @@
         <v>9</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1412,13 +1415,13 @@
         <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1430,16 +1433,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1451,16 +1454,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1472,16 +1475,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1490,19 +1493,19 @@
     </row>
     <row r="36" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1511,7 +1514,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>9</v>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3692D7B-D1A1-4F46-AC52-08539A0D18E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4BAAB9-3173-47B8-9305-B2222017E108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,9 +350,6 @@
     <t>pitctures_names</t>
   </si>
   <si>
-    <t>full_screen_1.jpg, full_screen_2.jpg</t>
-  </si>
-  <si>
     <t>לפני שתתחיל בניסוי נבקש מספר דברים:
 ראשית, וודא כי אתה נמצא בחדר שקט ושלא יהיו לך בו הפרעות שונות
 העבר את הטלפון הנייד שלך למצב שקט והכנס אותו לתיק או הוצא אותו מהחדר
@@ -389,6 +386,9 @@
   </si>
   <si>
     <t>מאשר את הפרטים הנ''ל ומסכים מרצוני החופשי להשתתף בניסוי זה</t>
+  </si>
+  <si>
+    <t>full_screen_1.JPG, full_screen_2.JPG</t>
   </si>
 </sst>
 </file>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,13 +909,13 @@
         <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -930,16 +930,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1331,13 +1331,13 @@
         <v>72</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4BAAB9-3173-47B8-9305-B2222017E108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AAAB07-1EBD-459F-941B-90E4EFC81EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="96">
   <si>
     <t>phase</t>
   </si>
@@ -210,16 +210,6 @@
     <t>End Screen</t>
   </si>
   <si>
-    <t>חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
-אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בסמן על מנת לקרב או להרחיק את העיגולים. 
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
-  </si>
-  <si>
-    <t>חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בסמן על מנת לקרב או להרחיק את העיגולים. 
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
-  </si>
-  <si>
     <t>מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
 קחי זמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו.ה</t>
   </si>
@@ -245,16 +235,10 @@
 שימי לב, עליך לדייק ויחד עם זאת להגיב במהירות. </t>
   </si>
   <si>
-    <t>כעת תתבקש לענות על אותן השאלות עבור {}, לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
     <t>Pre Get Max Profile</t>
   </si>
   <si>
     <t>Pre Get Min Profile</t>
-  </si>
-  <si>
-    <t>כעת תתבקשי לענות על אותן השאלות עבור {}, לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
   </si>
   <si>
     <t xml:space="preserve">בשלב זה תצפה במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונן היטב בפרופיל, ולאחר מכן הערך את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
@@ -348,6 +332,59 @@
   </si>
   <si>
     <t>pitctures_names</t>
+  </si>
+  <si>
+    <t>המחשב בדק את תשובותיך ומצב כי מספר הפעמים בהם לא זיהית נכונה את הפרופיל שלך חרג מעבר לכמות המותרת. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכלי להמשיך בניסוי. 
+אנא קראי היטב את ההוראות שיוצגו בפניך.</t>
+  </si>
+  <si>
+    <t>המחשב בדק את תשובותיך ומצב כי מספר הפעמים בהם לא זיהית נכונה את הפרופיל שלך חרג מעבר לכמות המותרת. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכל להמשיך בניסוי. 
+אנא קרא היטב את ההוראות שיוצגו בפניך.</t>
+  </si>
+  <si>
+    <t>מאשרת את הפרטים הנ''ל ומסכימה מרצוני החופשי להשתתף בניסוי זה</t>
+  </si>
+  <si>
+    <t>מאשר את הפרטים הנ''ל ומסכים מרצוני החופשי להשתתף בניסוי זה</t>
+  </si>
+  <si>
+    <t>full_screen_1.JPG, full_screen_2.JPG</t>
+  </si>
+  <si>
+    <t>חשוב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{},  דומים.
+אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בסמן על מנת לקרב או להרחיק את העיגולים. 
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>חשבי על {}, האדם שציינת כדומה לך ביותר. חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בסמן על מנת לקרב או להרחיק את העיגולים. 
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>חשבי על {}, האדם שציינת כהכי פחות דומה לך. חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בסמן על מנת לקרב או להרחיק את העיגולים. 
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>חשוב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
+אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בסמן על מנת לקרב או להרחיק את העיגולים. 
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>כעת תתבקשי לענות על אותן השאלות ,שקודם ענית עבור עצמך, הפעם עבור {}, האדם שציינת כדומה לך ביותר. 
+לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>כעת תתבקש לענות על אותן השאלות ,שקודם ענית עבור עצמך, הפעם עבור {}, האדם שציינת כדומה לך ביותר. 
+לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>וכעת תתבקשי לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת כהכי פחות דומה לך.
+לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>וכעת תתבקש לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת כהכי פחות דומה לך.
+לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
   </si>
   <si>
     <t>לפני שתתחיל בניסוי נבקש מספר דברים:
@@ -358,7 +395,19 @@
 וודא שיש ברשותך כ___, זהו הזמן המשוער שייקח על מנת לסיים את הניסוי
 העבר את המסך למצב "מסך מלא" והשאר אותו במצב זה עד לסוף הניסוי. 
 על מנת להעביר למסך מלא יש ללחוץ על הכפתור F11. התבונן בתמונות המופיעות בהמשך עמוד זה במידת הצורך. 
-לאחר שהעברת למצב מסך מלא, לחץ על הכפתור "הבא" המופיע בתחתית המסך. 
+לאחר שהעברת למצב מסך מלא, לחץ על הכפתור "הבא" המופיע בתחתית המסך (אם הכפתור אינו מופיע ניתן לגלול למטה את המסך). 
+במידת הצורך פנה לנסיינ.ית לעזרה.</t>
+  </si>
+  <si>
+    <t>לפני שתתחיל בניסוי נבקש מספר דברים:
+ראשית, וודא כי אתה נמצא בחדר שקט ושלא יהיו לך בו הפרעות שונות
+העבר את הטלפון הנייד שלך למצב שקט והכנס אותו לתיק או הוצא אותו מהחדר
+וודא כי אתה משתמש במחשב ולא בטלפון חכם או טאבלט
+שב בצורה נוחה מול מסך המחשב
+וודא שיש ברשותך כ___, זהו הזמן המשוער שייקח על מנת לסיים את הניסוי
+העבר את המסך למצב "מסך מלא" והשאר אותו במצב זה עד לסוף הניסוי. 
+על מנת להעביר למסך מלא יש ללחוץ על הכפתור F11. התבונן בתמונות המופיעות בהמשך עמוד זה במידת הצורך. 
+לאחר שהעברת למצב מסך מלא, לחץ על הכפתור "הבא" המופיע בתחתית המסך (אם הכפתור אינו מופיע ניתן לגלול למטה את המסך).
 במידת הצורך פנה לנסיינ.ית לעזרה.</t>
   </si>
   <si>
@@ -370,25 +419,8 @@
 וודאי שיש ברשותך כ___, זהו הזמן המשוער שייקח על מנת לסיים את הניסוי
 העבירי את המסך למצב "מסך מלא" והשאירי אותו במצב זה עד לסוף הניסוי. 
 על מנת להעביר למסך מלא יש ללחוץ על הכפתור F11. התבונני בתמונות המופיעות בהמשך עמוד זה במידת הצורך. 
-לאחר שהעברת למצב מסך מלא, לחצי על הכפתור "הבא" המופיע בתחתית המסך. 
+לאחר שהעברת למצב מסך מלא, לחצי על הכפתור "הבא" המופיע בתחתית המסך (אם הכפתור אינו מופיע ניתן לגלול למטה את המסך). 
 במידת הצורך פני לנסיינ.ית לעזרה.</t>
-  </si>
-  <si>
-    <t>המחשב בדק את תשובותיך ומצב כי מספר הפעמים בהם לא זיהית נכונה את הפרופיל שלך חרג מעבר לכמות המותרת. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכלי להמשיך בניסוי. 
-אנא קראי היטב את ההוראות שיוצגו בפניך.</t>
-  </si>
-  <si>
-    <t>המחשב בדק את תשובותיך ומצב כי מספר הפעמים בהם לא זיהית נכונה את הפרופיל שלך חרג מעבר לכמות המותרת. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכל להמשיך בניסוי. 
-אנא קרא היטב את ההוראות שיוצגו בפניך.</t>
-  </si>
-  <si>
-    <t>מאשרת את הפרטים הנ''ל ומסכימה מרצוני החופשי להשתתף בניסוי זה</t>
-  </si>
-  <si>
-    <t>מאשר את הפרטים הנ''ל ומסכים מרצוני החופשי להשתתף בניסוי זה</t>
-  </si>
-  <si>
-    <t>full_screen_1.JPG, full_screen_2.JPG</t>
   </si>
 </sst>
 </file>
@@ -738,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +800,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -909,20 +941,20 @@
         <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -930,16 +962,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -959,7 +991,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -987,7 +1019,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -995,20 +1027,20 @@
         <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1016,55 +1048,55 @@
         <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1079,13 +1111,13 @@
         <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1142,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1163,13 +1195,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1184,13 +1216,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1205,13 +1237,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1223,16 +1255,16 @@
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1244,16 +1276,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1265,16 +1297,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1310,13 +1342,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1328,16 +1360,16 @@
         <v>14</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1355,10 +1387,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1373,13 +1405,13 @@
         <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1394,13 +1426,13 @@
         <v>9</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1415,13 +1447,13 @@
         <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1475,16 +1507,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1493,19 +1525,19 @@
     </row>
     <row r="36" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AAAB07-1EBD-459F-941B-90E4EFC81EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526B03FB-DB42-4EAE-B2FD-7F1BC89FE534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
   <si>
     <t>phase</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>irrelevant</t>
-  </si>
-  <si>
-    <t>Identification Task</t>
   </si>
   <si>
     <t>השאלון שעליו את/ה עומד/ת לענות הוא חלק ממחקר פסיכולוגי שבוחן את הרגשות והחוויות בחיי היום יום.
@@ -77,19 +74,7 @@
 אם ברצונך לשמור עותק מדף זה, ניתן להדפיס את העמוד כעת.</t>
   </si>
   <si>
-    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
-בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את המאפיין אותם דירגת כעת, והשני הוא של משתתף אחר. 
-המטלה שלך היא להתבונן היטב בשני הפרופילים, ולזהות מה הוא הפרופיל שלך.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כעת תבצע מטלה מאוד דומה למטלה שביצע קודם, אלא שהשינוי המרכזי כאן הוא שלא תצטרף להמתין 30 שניות, אלא תצטרך להגיב כמה שיותר מהר. כלומר, ברגע שיופיעו שני הפרופילים, באופן אוטומטי גם יופיעו שני הכפתורים. המטרה שלך תהיה להחליט כמה שיותר מהר באיזה צד מופיע הפרופיל שלך וללחוץ על הכפתור שנמצא בצד המתאים.
-שים לב, עליך לדייק ויחד עם זאת להגיב במהירות. </t>
-  </si>
-  <si>
     <t>Pre Identification Task</t>
-  </si>
-  <si>
-    <t>preQuickPhase</t>
   </si>
   <si>
     <t>Get Min Max Similarity</t>
@@ -147,9 +132,6 @@
     <t>will</t>
   </si>
   <si>
-    <t>privacy</t>
-  </si>
-  <si>
     <t>קראתי את עמוד זה</t>
   </si>
   <si>
@@ -166,9 +148,6 @@
   </si>
   <si>
     <t>title</t>
-  </si>
-  <si>
-    <t>תודה על השתתפותך בניסוי!</t>
   </si>
   <si>
     <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
@@ -217,46 +196,10 @@
     <t>---</t>
   </si>
   <si>
-    <t>לאחר כ-30 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "אני". אם את חושבת שפרופיל ימין הוא הפרופיל שלך בחרי בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחרי בכפתור השמאלי אם את חושבת שהפרופיל שלך הוא השמאלי. 
-קחי את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עברו 30 שניות.
-כאשר תלחצי על הכפתור יתחלפו הפרופילים ותצטרכי לבחור שוב.</t>
-  </si>
-  <si>
-    <t>לאחר כ-30 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "זה הפרופיל שלי". אם תאה חושב שפרופיל ימין הוא הפרופיל שלך בחר בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחר בכפתור השמאלי אם אתה חושב שהפרופיל שלך הוא השמאלי. 
-קח את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עברו 30 שניות.
-כאשר תלחץ על הכפתור יתחלפו הפרופילים ותצטרך לבחור שוב.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כעת תבצע מטלה מאוד דומה למטלה שביצע קודם, אלא שהשינוי המרכזי כאן הוא שלא תצטרך להמתין 30 שניות, אלא תצטרך להגיב כמה שיותר מהר. כלומר, ברגע שיופיעו שני הפרופילים, באופן אוטומטי גם יופיעו שני הכפתורים. המטרה שלך תהיה להחליט כמה שיותר מהר באיזה צד מופיע הפרופיל שלך וללחוץ על הכפתור שנמצא בצד המתאים.
-שים לב, עליך לדייק ויחד עם זאת להגיב במהירות. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כעת תבצעי מטלה מאוד דומה למטלה שביצעת קודם, אלא שהשינוי המרכזי כאן הוא שלא תצטרכי להמתין 30 שניות, אלא תצטרכי להגיב כמה שיותר מהר. כלומר, ברגע שיופיעו שני הפרופילים, באופן אוטומטי גם יופיעו שני הכפתורים. המטרה שלך תהיה להחליט כמה שיותר מהר באיזה צד מופיע הפרופיל שלך וללחוץ על הכפתור שנמצא בצד המתאים.
-שימי לב, עליך לדייק ויחד עם זאת להגיב במהירות. </t>
-  </si>
-  <si>
     <t>Pre Get Max Profile</t>
   </si>
   <si>
     <t>Pre Get Min Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בשלב זה תצפה במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונן היטב בפרופיל, ולאחר מכן הערך את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
-בשלב הראשון אתה מתבקש לצפות בפרופיל ולהשתמש בתיבת הטקסט הלבנה על מנת לכתוב תיאור קצר של התרשמותך מהפרופיל. כלומר, כתוב מי הוא אותו אדם, איך היית מתאר אותו ומה אתה חושב עליו. שים לב, עליך להתייחס לכל התכונות המוצגות.
-הכתיבה נועדה בשביל לעזור לך להעריך עד כמה אתה מרגיש שאתם דומים, לכן, השתמש בשפה הנוחה לך ביותר לתיאור זה. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">בשלב זה תצפי במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונני היטב בפרופיל, ולאחר מכן העריכי את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
-בשלב הראשון את מתבקשת לצפות בפרופיל ולהשתמש בתיבת הטקסט הלבנה על מנת לכתוב תיאור קצר של התרשמותך מהפרופיל. כלומר, כתבי מי הוא אותו אדם, איך היית מתארת אותו ומה את חושבת עליו. שימי לב, עליך להתייחס לכל התכונות המוצגות.
-הכתיבה נועדה בשביל לעזור לך להעריך עד כמה את מרגישה שאתם דומים, לכן, השתמשי בשפה הנוחה לך ביותר לתיאור זה. </t>
-  </si>
-  <si>
-    <t>כשתסיים לכתוב גלול את המסך כלפי מטה ושם יוצגו שני עיגולים. עליך להשתמש בסמן על מנת להגדיל או להקטין את מידת החפיפה ביניהם כדי לדווח עד כמה אתה מרגיש שאתה והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. 
-שים לב שעל גבי הקו הרציף גם מופיעות ראשי התיבות של שני האנשים, הדומה והשונה ביותר ממך, במקומות התואמים את הגדרתך. תוכל כמובן גם להיעזר במיקומים אלו כדי לדייק בדירוג תחושת הדמיון.</t>
-  </si>
-  <si>
-    <t>כשתסיימי לכתוב גללי את המסך כלפי מטה ושם יוצגו שני עיגולים. עליך להשתמש בסמן על מנת להגדיל או להקטין את מידת החפיפה ביניהם כדי לדווח עד כמה את מרגישה שאת והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. 
-שימי לב שעל גבי הקו הרציף גם מופיעות ראשי התיבות של שני האנשים, הדומה והשונה ביותר ממך, במקומות התואמים את הגדרתך. תוכלי כמובן גם להיעזר במיקומים אלו כדי לדייק בדירוג תחושת הדמיון.</t>
   </si>
   <si>
     <t xml:space="preserve">בסוף הניסוי תקבלי תשלום כספי נוסף כתלות בביצועיך במהלך הניסוי!
@@ -290,137 +233,197 @@
     <t>Pre Get Ideal Profile</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>כל שאלה תעסוק במאפיין שונה שלך, למשל תכונות אופי ואישיות, תחביבים וכדומה.</t>
+  </si>
+  <si>
+    <t>כל שאלה תעסוק בהעדפות שלך בנושאים שונים.</t>
+  </si>
+  <si>
+    <t>pitctures_names</t>
+  </si>
+  <si>
+    <t>חשוב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{},  דומים.
+אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בסמן על מנת לקרב או להרחיק את העיגולים. 
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>חשבי על {}, האדם שציינת כדומה לך ביותר. חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בסמן על מנת לקרב או להרחיק את העיגולים. 
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>חשבי על {}, האדם שציינת כהכי פחות דומה לך. חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בסמן על מנת לקרב או להרחיק את העיגולים. 
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>חשוב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
+אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בסמן על מנת לקרב או להרחיק את העיגולים. 
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>report_instructions</t>
+  </si>
+  <si>
+    <t>כעת את מתבקשת לדווח על מידת הדמיון שאת חווה בינך לבין האדם האחר. השתמשי בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.
+בנוסף תוכלי לראות את מידת הדמיון בין לבין האדם הדומה לך ביותר או האדם הכי פחות דומה לך, כפי שאת דיווחת.</t>
+  </si>
+  <si>
+    <t>כעת את מתבקשת לדווח על מידת הדמיון שאת חווה בינך לבין האדם האחר. השתמש בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.
+בנוסף תוכל לראות את מידת הדמיון בין לבין האדם הדומה לך ביותר או האדם הכי פחות דומה לך, כפי שאתה דיווחת.</t>
+  </si>
+  <si>
+    <t>concent_agreement</t>
+  </si>
+  <si>
+    <t>מאשר את כלל הפרטים הנ''ל ומסכים מרצוני החופשי להשתתף במחקר זה</t>
+  </si>
+  <si>
+    <t>מאשרת את כלל הפרטים הנ''ל ומסכימה מרצוני החופשי להשתתף במחקר זה</t>
+  </si>
+  <si>
+    <t>לפני שתתחיל בניסוי נבקש מספר דברים: 
+ראשית, וודא כי אתה נמצא בחדר שקט ושלא יהיו לך בו הפרעות שונות.לאחר מכן, העבר בבקשה את הטלפון הנייד שלך למצב שקט והכנס אותו לתיק או הוצא אותו מהחדר.
+&lt;br&gt;וודא כי אתה משתמש במחשב ולא בטלפון חכם או טאבלט.
+כמו כן, נסה לשבת בצורה נוחה מול מסך המחשב ווודא שיש ברשותך כ___, זהו הזמן המשוער שייקח על מנת לסיים את הניסוי.
+&lt;br&gt;לבסוף, העבר את המסך למצב "מסך מלא" והשאר אותו במצב זה עד לסוף הניסוי. 
+&lt;br&gt;
+&lt;br&gt;על מנת להעביר למסך מלא יש ללחוץ על הכפתור F11. התבונן בתמונות המופיעות בהמשך עמוד זה במידת הצורך. 
+לאחר שהעברת למצב מסך מלא, לחץ על הכפתור "הבא" המופיע בתחתית המסך (אם הכפתור אינו מופיע ניתן לגלול למטה את המסך). 
+במידת הצורך פנה לנסיינ.ית לעזרה.</t>
+  </si>
+  <si>
+    <t>לפני שתתחיל בניסוי נבקש מספר דברים: 
+ראשית, וודאי כי את נמצאת בחדר שקט ושלא יהיו לך בו הפרעות שונות.לאחר מכן, העבירי בבקשה את הטלפון הנייד שלך למצב שקט והכניסי אותו לתיק או הוציאי אותו מהחדר.
+&lt;br&gt;וודאי כי את משתמשת במחשב ולא בטלפון חכם או טאבלט.
+כמו כן, נסי לשבת בצורה נוחה מול מסך המחשב ווודאי שיש ברשותך כ___, זהו הזמן המשוער שייקח על מנת לסיים את הניסוי.
+&lt;br&gt;לבסוף, העבירי את המסך למצב "מסך מלא" והשאירי אותו במצב זה עד לסוף הניסוי. 
+&lt;br&gt;
+&lt;br&gt;על מנת להעביר למסך מלא יש ללחוץ על הכפתור F11. התבונני בתמונות המופיעות בהמשך עמוד זה במידת הצורך. 
+לאחר שהעברת למצב מסך מלא, לחצי על הכפתור "הבא" המופיע בתחתית המסך (אם הכפתור אינו מופיע ניתן לגלול למטה את המסך). 
+במידת הצורך פני לנסיינ.ית לעזרה.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקש לענות על מספר שאלות.
+{}
+&lt;br&gt;התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
+&lt;br&gt;לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.
+&lt;br&gt; שים לב, רק לאחר לחיצה על הסמן ובחירת מיקומו יתאפשר להמשיך לשלב הבא. במידה ותרצה לבחור את האמצע בין שתי הקצוות, ניתן ללחוץ על הסמן מבלי לגרור אותו לאף צד.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
+{}
+&lt;br&gt;התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר אותך בצורה הטובה והמדויקת ביותר.
+&lt;br&gt;לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.
+&lt;br&gt; שימי לב, רק לאחר לחיצה על הסמן ובחירת מיקומו יתאפשר להמשיך לשלב הבא. במידה ותרצי לבחור את האמצע בין שתי הקצוות, ניתן ללחוץ על הסמן מבלי לגרור אותו לאף צד.</t>
+  </si>
+  <si>
+    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
+בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את המאפיינים אותם דירגת כעת, והשני הוא של משתתף אחר. 
+המטלה שלך היא להתבונן היטב בשני הפרופילים, ולזהות מה הוא הפרופיל שלך.
+&lt;br&gt; שימי לב, במקרים מסויימים אף אחד מהפרופולים לא יהיה הפרופיל שלך, במקרה זה תוכלי ללחוץ על כפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". חשוב לבחון את כלל המאפיינים של כל פרופיל לפני שמגיעים להחלטה.</t>
+  </si>
+  <si>
+    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
+בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את המאפיינים אותם דירגת כעת, והשני הוא של משתתף אחר. 
+המטלה שלך היא להתבונן היטב בשני הפרופילים, ולזהות מה הוא הפרופיל שלך.
+&lt;br&gt; שים לב, במקרים מסויימים אף אחד מהפרופולים לא יהיה הפרופיל שלך, במקרה זה תוכל ללחוץ על כפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". חשוב לבחון את כלל המאפיינים של כל פרופיל לפני שמגיעים להחלטה.</t>
+  </si>
+  <si>
+    <t>לאחר כ-15 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "אני". אם אתה חושב שפרופיל ימין הוא הפרופיל שלך בחר בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחר בכפתור השמאלי אם אתה חושב שהפרופיל שלך הוא השמאלי. 
+&lt;br&gt;קח את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עברו 15 שניות.
+&lt;br&gt;כאשר תלחץ על הכפתור יתחלפו הפרופילים ותצטרך לבחור שוב.</t>
+  </si>
+  <si>
+    <t>לאחר כ-15 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "אני". אם את חושבת שפרופיל ימין הוא הפרופיל שלך בחרי בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחרי בכפתור השמאלי אם את חושבת שהפרופיל שלך הוא השמאלי. 
+&lt;br&gt;קחי את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עברו 15 שניות.
+&lt;br&gt;כאשר תלחצי על הכפתור יתחלפו הפרופילים ותצטרכי לבחור שוב.</t>
+  </si>
+  <si>
+    <t>המחשב בדק את תשובותיך ומצא כי מספר טעויות. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכל להמשיך בניסוי. 
+&lt;br&gt;אנא קרא היטב את ההוראות שיוצגו בפניך.</t>
+  </si>
+  <si>
+    <t>המחשב בדק את תשובותיך ומצא מספר טעויות. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכלי להמשיך בניסוי. 
+&lt;br&gt;אנא קראי היטב את ההוראות שיוצגו בפניך.</t>
+  </si>
+  <si>
+    <t>כעת תתבקש לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר &lt;/strong&gt;. 
+&lt;br&gt;לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>כעת תתבקשי לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר &lt;/strong&gt;. 
+&lt;br&gt;לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>וכעת תתבקש לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת כהכי פחות דומה לך.
+לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>וכעת תתבקש לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת כהכי פחות דומה לך.
+&lt;br&gt;לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>וכעת תתבקשי לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת כהכי פחות דומה לך.
+&lt;br&gt;לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>בשלב זה תצפי במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונני היטב בפרופיל, ולאחר מכן העריכי את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
+&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסי להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
+&lt;br&gt; אם תרצי להתרשם פעם נוספת מהפרופיל, תוכלי בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
+  </si>
+  <si>
+    <t>בשלב זה תצפה במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונן היטב בפרופיל, ולאחר מכן הערך את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
+&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסה להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
+&lt;br&gt; אם תרצה להתרשם פעם נוספת מהפרופיל, תוכל בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
+  </si>
+  <si>
+    <t>report.JPG</t>
+  </si>
+  <si>
+    <t>full_screen_1.JPG</t>
+  </si>
+  <si>
+    <t>שימי לב שמעגלי דיווח הדמיון ימוקמו כך שמעליהם ומתחתיהם מופעים עוד שני זוגות מעגלים. זוג המעגלים העליון מציג את מידת הדמיון עליה דיווחת קודם בינך לבין האדם הדומה לך ביותר וזוג המעגלים התחתון מציג את מידת הדמיון עליה דיווחת בינך לבין האדם הכי פחות דומה לך. 
+&lt;br&gt;תוכלי כמובן גם להיעזר במיקומים אלו כדי לדייק את דיווח תחושת הדמיון שלך. כאשר תבחרי מידת דמיון אשר זהה למידת החפיפה בינך לבין הדומה ביותר אליך יצבעו שני זוגות המעגלים בצבע זהה. אותו דבר יקרה כאשר תבחרי מידת דמיון אשר זהה למידת החפיפה בינך לבין האדם הכי פחות דומה לך.</t>
+  </si>
+  <si>
+    <t>שים לב שמעגלי דיווח הדמיון ימוקמו כך שמעליהם ומתחתיהם מופעים עוד שני זוגות מעגלים. זוג המעגלים העליון מציג את מידת הדמיון עליה דיווחת קודם בינך לבין האדם הדומה לך ביותר וזוג המעגלים התחתון מציג את מידת הדמיון עליה דיווחת בינך לבין האדם הכי פחות דומה לך. 
+&lt;br&gt;תוכל כמובן גם להיעזר במיקומים אלו כדי לדייק את דיווח תחושת הדמיון שלך. כאשר תבחר מידת דמיון אשר זהה למידת החפיפה בינך לבין הדומה ביותר אליך יצבעו שני זוגות המעגלים בצבע זהה. אותו דבר יקרה כאשר תבחר מידת דמיון אשר זהה למידת החפיפה בינך לבין האדם הכי פחות דומה לך.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים (כפי שניתן לראות בתמונה המצורפת) - אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "יותר" ו"פחות" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה אתה מרגיש שאתה והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים (כפי שניתן לראות בתמונה המצורפת) - אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "יותר" ו"פחות" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה את מרגישה שאת והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
+</t>
+  </si>
+  <si>
+    <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
+בחלק זה של הניסוי זה תתבקשי לענות פעם נוספת על אותן שאלות כמו בהתחלה 
+אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקשי לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאת בפועל. 
+התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר את המקום אליו את שואף ואיך שהיית במצב אידאלי.
+ לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
     <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
 בחלק זה של הניסוי זה תתבקש לענות פעם נוספת על אותן שאלות כמו בהתחלה 
 אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקש לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאתה בפועל. 
 התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר את המקום אליו אתה שואף ואיך שהיית במצב אידאלי.
- לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
-בחלק זה של הניסוי זה תתבקשי לענות פעם נוספת על אותן שאלות כמו בהתחלה 
-אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקשי לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאת בפועל. 
-התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר את המקום אליו את שואף ואיך שהיית במצב אידאלי.
- לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>כל שאלה תעסוק במאפיין שונה שלך, למשל תכונות אופי ואישיות, תחביבים וכדומה.</t>
-  </si>
-  <si>
-    <t>בחלק זה של הניסוי זה תתבקש לענות על מספר שאלות.
-{}
-התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
- לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
-{}
-התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר אותך בצורה הטובה והמדויקת ביותר.
- לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>כל שאלה תעסוק בהעדפות שלך בנושאים שונים.</t>
-  </si>
-  <si>
-    <t>pitctures_names</t>
-  </si>
-  <si>
-    <t>המחשב בדק את תשובותיך ומצב כי מספר הפעמים בהם לא זיהית נכונה את הפרופיל שלך חרג מעבר לכמות המותרת. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכלי להמשיך בניסוי. 
-אנא קראי היטב את ההוראות שיוצגו בפניך.</t>
-  </si>
-  <si>
-    <t>המחשב בדק את תשובותיך ומצב כי מספר הפעמים בהם לא זיהית נכונה את הפרופיל שלך חרג מעבר לכמות המותרת. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכל להמשיך בניסוי. 
-אנא קרא היטב את ההוראות שיוצגו בפניך.</t>
-  </si>
-  <si>
-    <t>מאשרת את הפרטים הנ''ל ומסכימה מרצוני החופשי להשתתף בניסוי זה</t>
-  </si>
-  <si>
-    <t>מאשר את הפרטים הנ''ל ומסכים מרצוני החופשי להשתתף בניסוי זה</t>
-  </si>
-  <si>
-    <t>full_screen_1.JPG, full_screen_2.JPG</t>
-  </si>
-  <si>
-    <t>חשוב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{},  דומים.
-אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בסמן על מנת לקרב או להרחיק את העיגולים. 
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
-  </si>
-  <si>
-    <t>חשבי על {}, האדם שציינת כדומה לך ביותר. חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בסמן על מנת לקרב או להרחיק את העיגולים. 
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
-  </si>
-  <si>
-    <t>חשבי על {}, האדם שציינת כהכי פחות דומה לך. חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בסמן על מנת לקרב או להרחיק את העיגולים. 
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
-  </si>
-  <si>
-    <t>חשוב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
-אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בסמן על מנת לקרב או להרחיק את העיגולים. 
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
-  </si>
-  <si>
-    <t>כעת תתבקשי לענות על אותן השאלות ,שקודם ענית עבור עצמך, הפעם עבור {}, האדם שציינת כדומה לך ביותר. 
-לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>כעת תתבקש לענות על אותן השאלות ,שקודם ענית עבור עצמך, הפעם עבור {}, האדם שציינת כדומה לך ביותר. 
-לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>וכעת תתבקשי לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת כהכי פחות דומה לך.
-לאחר בחירת מיקום הסמן, לחצי על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>וכעת תתבקש לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת כהכי פחות דומה לך.
-לאחר בחירת מיקום הסמן, לחץ על הכפתור &lt;בחר והמשך&gt; אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>לפני שתתחיל בניסוי נבקש מספר דברים:
-ראשית, וודא כי אתה נמצא בחדר שקט ושלא יהיו לך בו הפרעות שונות
-העבר את הטלפון הנייד שלך למצב שקט והכנס אותו לתיק או הוצא אותו מהחדר
-וודא כי אתה משתמש במחשב ולא בטלפון חכם או טאבלט
-שב בצורה נוחה מול מסך המחשב
-וודא שיש ברשותך כ___, זהו הזמן המשוער שייקח על מנת לסיים את הניסוי
-העבר את המסך למצב "מסך מלא" והשאר אותו במצב זה עד לסוף הניסוי. 
-על מנת להעביר למסך מלא יש ללחוץ על הכפתור F11. התבונן בתמונות המופיעות בהמשך עמוד זה במידת הצורך. 
-לאחר שהעברת למצב מסך מלא, לחץ על הכפתור "הבא" המופיע בתחתית המסך (אם הכפתור אינו מופיע ניתן לגלול למטה את המסך). 
-במידת הצורך פנה לנסיינ.ית לעזרה.</t>
-  </si>
-  <si>
-    <t>לפני שתתחיל בניסוי נבקש מספר דברים:
-ראשית, וודא כי אתה נמצא בחדר שקט ושלא יהיו לך בו הפרעות שונות
-העבר את הטלפון הנייד שלך למצב שקט והכנס אותו לתיק או הוצא אותו מהחדר
-וודא כי אתה משתמש במחשב ולא בטלפון חכם או טאבלט
-שב בצורה נוחה מול מסך המחשב
-וודא שיש ברשותך כ___, זהו הזמן המשוער שייקח על מנת לסיים את הניסוי
-העבר את המסך למצב "מסך מלא" והשאר אותו במצב זה עד לסוף הניסוי. 
-על מנת להעביר למסך מלא יש ללחוץ על הכפתור F11. התבונן בתמונות המופיעות בהמשך עמוד זה במידת הצורך. 
-לאחר שהעברת למצב מסך מלא, לחץ על הכפתור "הבא" המופיע בתחתית המסך (אם הכפתור אינו מופיע ניתן לגלול למטה את המסך).
-במידת הצורך פנה לנסיינ.ית לעזרה.</t>
-  </si>
-  <si>
-    <t>לפני שתתחיל בניסוי נבקש מספר דברים:
-ראשית, וודאי כי את נמצאת בחדר שקט ושלא יהיו לך בו הפרעות שונות
-העבירי את הטלפון הנייד שלך למצב שקט והכניסי אותו לתיק או הוציאי אותו מהחדר
-וודאי כי את משתמשת במחשב ולא בטלפון חכם או טאבלט
-שבי בצורה נוחה מול מסך המחשב
-וודאי שיש ברשותך כ___, זהו הזמן המשוער שייקח על מנת לסיים את הניסוי
-העבירי את המסך למצב "מסך מלא" והשאירי אותו במצב זה עד לסוף הניסוי. 
-על מנת להעביר למסך מלא יש ללחוץ על הכפתור F11. התבונני בתמונות המופיעות בהמשך עמוד זה במידת הצורך. 
-לאחר שהעברת למצב מסך מלא, לחצי על הכפתור "הבא" המופיע בתחתית המסך (אם הכפתור אינו מופיע ניתן לגלול למטה את המסך). 
-במידת הצורך פני לנסיינ.ית לעזרה.</t>
+ לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>טופס הסכמה</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -487,6 +490,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,13 +800,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -815,13 +821,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -833,16 +839,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -854,16 +860,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -875,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -896,16 +902,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -917,16 +923,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -938,23 +944,23 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -962,16 +968,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -979,19 +985,19 @@
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1000,19 +1006,19 @@
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1021,19 +1027,19 @@
     </row>
     <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1042,40 +1048,40 @@
     </row>
     <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1084,19 +1090,19 @@
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1105,19 +1111,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1126,19 +1132,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1147,19 +1153,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1168,19 +1174,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1189,19 +1195,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1210,26 +1216,26 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="C21" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
@@ -1237,13 +1243,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1255,16 +1261,16 @@
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1276,16 +1282,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1297,107 +1303,109 @@
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>4</v>
       </c>
@@ -1405,36 +1413,34 @@
         <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="4"/>
+        <v>94</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="4"/>
+      <c r="C31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1447,13 +1453,13 @@
         <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1465,16 +1471,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1486,78 +1492,99 @@
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526B03FB-DB42-4EAE-B2FD-7F1BC89FE534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501DD00F-B341-4CE7-AF35-365E32F1FD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="100">
   <si>
     <t>phase</t>
   </si>
@@ -170,10 +170,6 @@
     <t>דמיון גבוה ביותר</t>
   </si>
   <si>
-    <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחרי את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
-קח זמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו.ה</t>
-  </si>
-  <si>
     <t>askMax</t>
   </si>
   <si>
@@ -212,18 +208,6 @@
 </t>
   </si>
   <si>
-    <t>כעת אתה מתבקש לדרג את מידת הדמיון בינך לבין האדם האחר	
-השתמש בסמן על מנת לקרב או להרחיק את העיגולים.
-ככל שמידת החפיפה גדולה יותר - כך הדמיון גדול יותר.
-שים לב שעל גבי הקו הרציף גם מופיעות ראשי התיבות של שני האנשים, הדומה והשונה ביותר ממך, במקומות התואמים את הגדרתך. תוכל כמובן גם להיעזר במיקומים אלו כדי לדייק בדירוג תחושת הדמיון.</t>
-  </si>
-  <si>
-    <t>כעת את מתבקשת לדרג את מידת הדמיון בינך לבין האדם האחר	
-השתמש בסמן על מנת לקרב או להרחיק את העיגולים.
-ככל שמידת החפיפה גדולה יותר - כך הדמיון גדול יותר.
-שימי לב שעל גבי הקו הרציף גם מופיעות ראשי התיבות של שני האנשים, הדומה והשונה ביותר ממך, במקומות התואמים את הגדרתך. תוכלי כמובן גם להיעזר במיקומים אלו כדי לדייק בדירוג תחושת הדמיון.</t>
-  </si>
-  <si>
     <t>practiceTrialsInstructions</t>
   </si>
   <si>
@@ -251,31 +235,7 @@
     <t>pitctures_names</t>
   </si>
   <si>
-    <t>חשוב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{},  דומים.
-אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בסמן על מנת לקרב או להרחיק את העיגולים. 
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
-  </si>
-  <si>
-    <t>חשבי על {}, האדם שציינת כדומה לך ביותר. חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בסמן על מנת לקרב או להרחיק את העיגולים. 
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
-  </si>
-  <si>
-    <t>חשבי על {}, האדם שציינת כהכי פחות דומה לך. חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בסמן על מנת לקרב או להרחיק את העיגולים. 
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
-  </si>
-  <si>
-    <t>חשוב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
-אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בסמן על מנת לקרב או להרחיק את העיגולים. 
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
-  </si>
-  <si>
     <t>report_instructions</t>
-  </si>
-  <si>
-    <t>כעת את מתבקשת לדווח על מידת הדמיון שאת חווה בינך לבין האדם האחר. השתמשי בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.
-בנוסף תוכלי לראות את מידת הדמיון בין לבין האדם הדומה לך ביותר או האדם הכי פחות דומה לך, כפי שאת דיווחת.</t>
   </si>
   <si>
     <t>כעת את מתבקשת לדווח על מידת הדמיון שאת חווה בינך לבין האדם האחר. השתמש בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.
@@ -291,8 +251,51 @@
     <t>מאשרת את כלל הפרטים הנ''ל ומסכימה מרצוני החופשי להשתתף במחקר זה</t>
   </si>
   <si>
+    <t>המחשב בדק את תשובותיך ומצא כי מספר טעויות. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכל להמשיך בניסוי. 
+&lt;br&gt;אנא קרא היטב את ההוראות שיוצגו בפניך.</t>
+  </si>
+  <si>
+    <t>המחשב בדק את תשובותיך ומצא מספר טעויות. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכלי להמשיך בניסוי. 
+&lt;br&gt;אנא קראי היטב את ההוראות שיוצגו בפניך.</t>
+  </si>
+  <si>
+    <t>בשלב זה תצפי במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונני היטב בפרופיל, ולאחר מכן העריכי את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
+&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסי להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
+&lt;br&gt; אם תרצי להתרשם פעם נוספת מהפרופיל, תוכלי בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
+  </si>
+  <si>
+    <t>בשלב זה תצפה במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונן היטב בפרופיל, ולאחר מכן הערך את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
+&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסה להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
+&lt;br&gt; אם תרצה להתרשם פעם נוספת מהפרופיל, תוכל בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
+  </si>
+  <si>
+    <t>report.JPG</t>
+  </si>
+  <si>
+    <t>full_screen_1.JPG</t>
+  </si>
+  <si>
+    <t>שימי לב שמעגלי דיווח הדמיון ימוקמו כך שמעליהם ומתחתיהם מופעים עוד שני זוגות מעגלים. זוג המעגלים העליון מציג את מידת הדמיון עליה דיווחת קודם בינך לבין האדם הדומה לך ביותר וזוג המעגלים התחתון מציג את מידת הדמיון עליה דיווחת בינך לבין האדם הכי פחות דומה לך. 
+&lt;br&gt;תוכלי כמובן גם להיעזר במיקומים אלו כדי לדייק את דיווח תחושת הדמיון שלך. כאשר תבחרי מידת דמיון אשר זהה למידת החפיפה בינך לבין הדומה ביותר אליך יצבעו שני זוגות המעגלים בצבע זהה. אותו דבר יקרה כאשר תבחרי מידת דמיון אשר זהה למידת החפיפה בינך לבין האדם הכי פחות דומה לך.</t>
+  </si>
+  <si>
+    <t>שים לב שמעגלי דיווח הדמיון ימוקמו כך שמעליהם ומתחתיהם מופעים עוד שני זוגות מעגלים. זוג המעגלים העליון מציג את מידת הדמיון עליה דיווחת קודם בינך לבין האדם הדומה לך ביותר וזוג המעגלים התחתון מציג את מידת הדמיון עליה דיווחת בינך לבין האדם הכי פחות דומה לך. 
+&lt;br&gt;תוכל כמובן גם להיעזר במיקומים אלו כדי לדייק את דיווח תחושת הדמיון שלך. כאשר תבחר מידת דמיון אשר זהה למידת החפיפה בינך לבין הדומה ביותר אליך יצבעו שני זוגות המעגלים בצבע זהה. אותו דבר יקרה כאשר תבחר מידת דמיון אשר זהה למידת החפיפה בינך לבין האדם הכי פחות דומה לך.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים (כפי שניתן לראות בתמונה המצורפת) - אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "יותר" ו"פחות" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה אתה מרגיש שאתה והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים (כפי שניתן לראות בתמונה המצורפת) - אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "יותר" ו"פחות" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה את מרגישה שאת והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
+</t>
+  </si>
+  <si>
+    <t>טופס הסכמה</t>
+  </si>
+  <si>
     <t>לפני שתתחיל בניסוי נבקש מספר דברים: 
-ראשית, וודא כי אתה נמצא בחדר שקט ושלא יהיו לך בו הפרעות שונות.לאחר מכן, העבר בבקשה את הטלפון הנייד שלך למצב שקט והכנס אותו לתיק או הוצא אותו מהחדר.
+ראשית, וודא כי אתה נמצא בחדר שקט ושלא יהיו לך בו הפרעות שונות. לאחר מכן, העבר בבקשה את הטלפון הנייד שלך למצב שקט והכנס אותו לתיק או הוצא אותו מהחדר.
 &lt;br&gt;וודא כי אתה משתמש במחשב ולא בטלפון חכם או טאבלט.
 כמו כן, נסה לשבת בצורה נוחה מול מסך המחשב ווודא שיש ברשותך כ___, זהו הזמן המשוער שייקח על מנת לסיים את הניסוי.
 &lt;br&gt;לבסוף, העבר את המסך למצב "מסך מלא" והשאר אותו במצב זה עד לסוף הניסוי. 
@@ -303,7 +306,7 @@
   </si>
   <si>
     <t>לפני שתתחיל בניסוי נבקש מספר דברים: 
-ראשית, וודאי כי את נמצאת בחדר שקט ושלא יהיו לך בו הפרעות שונות.לאחר מכן, העבירי בבקשה את הטלפון הנייד שלך למצב שקט והכניסי אותו לתיק או הוציאי אותו מהחדר.
+ראשית, וודאי כי את נמצאת בחדר שקט ושלא יהיו לך בו הפרעות שונות. לאחר מכן, העבירי בבקשה את הטלפון הנייד שלך למצב שקט והכניסי אותו לתיק או הוציאי אותו מהחדר.
 &lt;br&gt;וודאי כי את משתמשת במחשב ולא בטלפון חכם או טאבלט.
 כמו כן, נסי לשבת בצורה נוחה מול מסך המחשב ווודאי שיש ברשותך כ___, זהו הזמן המשוער שייקח על מנת לסיים את הניסוי.
 &lt;br&gt;לבסוף, העבירי את המסך למצב "מסך מלא" והשאירי אותו במצב זה עד לסוף הניסוי. 
@@ -313,117 +316,119 @@
 במידת הצורך פני לנסיינ.ית לעזרה.</t>
   </si>
   <si>
+    <t>חשבי על {}, האדם שציינת כהכי פחות דומה לך. חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>חשוב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
+אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>חשבי על {}, האדם שציינת כדומה לך ביותר. חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>חשוב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{},  דומים.
+אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
+ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
+  </si>
+  <si>
+    <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
+בחלק זה של הניסוי זה תתבקש לענות פעם נוספת על אותן שאלות כמו בהתחלה 
+אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקש לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאתה בפועל. 
+התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר את המקום אליו אתה שואף ואיך שהיית במצב אידאלי.
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
+בחלק זה של הניסוי זה תתבקש לענות פעם נוספת על אותן שאלות כמו בהתחלה אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקש לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאתה בפועל. 
+&lt;br&gt;התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר את המקום אליו אתה שואף ואיך שהיית במצב אידאלי.
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
+בחלק זה של הניסוי זה תתבקשי לענות פעם נוספת על אותן שאלות כמו בהתחלה אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקשי לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאת בפועל. 
+&lt;br&gt;התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר את המקום אליו את שואף ואיך שהיית במצב אידאלי.
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>כעת אתה מתבקש לדווח על מידת הדמיון שאתה חווה בינך לבין האדם האחר. השתמש בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.</t>
+  </si>
+  <si>
+    <t>כעת את מתבקשת לדווח על מידת הדמיון שאת חווה בינך לבין האדם האחר. השתמשי בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.</t>
+  </si>
+  <si>
+    <t>האימון הסתיים וכעת תמשיכי בביצוע מטלה זו. המטלה זהה מאוד לאימון מלבד מספר הבדלים. בשונה מבאימון, בשלב זה לא יוצגו שני מעגלי החפיפה הנוספים (בינך לבין האדם שציינת כדומה לך ביותר, ובינך לבין האדם שציינת כשונה ממך ביותר), כמו כן צבע מעגלי הדיווח יהיה כעת אפור.
+&lt;br&gt;המטלה נותרת זהה - יש להתבונן במאפיינים שמוצגים, ניתן להתבונן שוב במידת הצורך, כאשר מטרתך תוך כדי ההתבוננות במאפיינים היא לנסות להכיר את אותו אדם. לאחר מכן יש לדווח על תחושת הדמיון בינך לבין האדם שצפית בתכונותיו, בהתאם לחוויתך האישית והפנימית.
+&lt;br&gt;&lt;br&gt;אם יש לך שאלות, ניתן לפנות כעת לנסיינ.ית</t>
+  </si>
+  <si>
+    <t>האימון הסתיים וכעת תמשיך בביצוע מטלה זו. המטלה זהה מאוד לאימון מלבד מספר הבדלים. בשונה מבאימון, בשלב זה לא יוצגו שני מעגלי החפיפה הנוספים (בינך לבין האדם שציינת כדומה לך ביותר, ובינך לבין האדם שציינת כשונה ממך ביותר), כמו כן צבע מעגלי הדיווח יהיה כעת אפור.
+&lt;br&gt;המטלה נותרת זהה - יש להתבונן במאפיינים שמוצגים, ניתן להתבונן שוב במידת הצורך, כאשר מטרתך תוך כדי ההתבוננות במאפיינים היא לנסות להכיר את אותו אדם. לאחר מכן יש לדווח על תחושת הדמיון בינך לבין האדם שצפית בתכונותיו, בהתאם לחוויתך האישית והפנימית.
+&lt;br&gt;&lt;br&gt;אם יש לך שאלות, ניתן לפנות כעת לנסיינ.ית</t>
+  </si>
+  <si>
+    <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
+קח זמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו.ה</t>
+  </si>
+  <si>
+    <t>כעת, מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
+קחי זמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו.ה</t>
+  </si>
+  <si>
+    <t>כעת תתבקשי לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכולה לדעת את התשובות במדויק, לכן נסי לחשוב מה תהיה השתובה של {}, לדעתך. 
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>כעת תתבקש לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה השתובה של {}, לדעתך.
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
     <t>בחלק זה של הניסוי זה תתבקש לענות על מספר שאלות.
 {}
 &lt;br&gt;התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
 &lt;br&gt;לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.
-&lt;br&gt; שים לב, רק לאחר לחיצה על הסמן ובחירת מיקומו יתאפשר להמשיך לשלב הבא. במידה ותרצה לבחור את האמצע בין שתי הקצוות, ניתן ללחוץ על הסמן מבלי לגרור אותו לאף צד.</t>
+&lt;br&gt; שים לב, רק לאחר לחיצה על הסמן ובחירת מיקומו יתאפשר להמשיך לשלב הבא.</t>
   </si>
   <si>
     <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
 {}
 &lt;br&gt;התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר אותך בצורה הטובה והמדויקת ביותר.
 &lt;br&gt;לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.
-&lt;br&gt; שימי לב, רק לאחר לחיצה על הסמן ובחירת מיקומו יתאפשר להמשיך לשלב הבא. במידה ותרצי לבחור את האמצע בין שתי הקצוות, ניתן ללחוץ על הסמן מבלי לגרור אותו לאף צד.</t>
+&lt;br&gt; שימי לב, רק לאחר לחיצה על הסמן ובחירת מיקומו יתאפשר להמשיך לשלב הבא.</t>
   </si>
   <si>
     <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
 בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את המאפיינים אותם דירגת כעת, והשני הוא של משתתף אחר. 
 המטלה שלך היא להתבונן היטב בשני הפרופילים, ולזהות מה הוא הפרופיל שלך.
-&lt;br&gt; שימי לב, במקרים מסויימים אף אחד מהפרופולים לא יהיה הפרופיל שלך, במקרה זה תוכלי ללחוץ על כפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". חשוב לבחון את כלל המאפיינים של כל פרופיל לפני שמגיעים להחלטה.</t>
+&lt;br&gt; שימי לב, במקרים מסויימים אף אחד מהפרופולים לא יהיה הפרופיל שלך, במקרה זה תוכלי ללחוץ על הכפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". חשוב לבחון את כלל המאפיינים של כל פרופיל לפני שמגיעים להחלטה.</t>
   </si>
   <si>
     <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
 בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את המאפיינים אותם דירגת כעת, והשני הוא של משתתף אחר. 
 המטלה שלך היא להתבונן היטב בשני הפרופילים, ולזהות מה הוא הפרופיל שלך.
-&lt;br&gt; שים לב, במקרים מסויימים אף אחד מהפרופולים לא יהיה הפרופיל שלך, במקרה זה תוכל ללחוץ על כפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". חשוב לבחון את כלל המאפיינים של כל פרופיל לפני שמגיעים להחלטה.</t>
-  </si>
-  <si>
-    <t>לאחר כ-15 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "אני". אם אתה חושב שפרופיל ימין הוא הפרופיל שלך בחר בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחר בכפתור השמאלי אם אתה חושב שהפרופיל שלך הוא השמאלי. 
+&lt;br&gt; שים לב, במקרים מסויימים אף אחד מהפרופולים לא יהיה הפרופיל שלך, במקרה זה תוכל ללחוץ על הכפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". חשוב לבחון את כלל המאפיינים של כל פרופיל לפני שמגיעים להחלטה.</t>
+  </si>
+  <si>
+    <t>לאחר כ-15 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "זה הפרופיל שלי". אם את חושבת שפרופיל ימין הוא הפרופיל שלך בחרי בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחרי בכפתור השמאלי אם את חושבת שהפרופיל שלך הוא השמאלי. 
+&lt;br&gt;קחי את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עברו 15 שניות.
+&lt;br&gt;כאשר תלחצי על הכפתור יתחלפו הפרופילים ותצטרכי לבחור שוב.</t>
+  </si>
+  <si>
+    <t>לאחר כ-15 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "זה הפרופיל שלי". אם אתה חושב שפרופיל ימין הוא הפרופיל שלך בחר בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחר בכפתור השמאלי אם אתה חושב שהפרופיל שלך הוא השמאלי. 
 &lt;br&gt;קח את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עברו 15 שניות.
 &lt;br&gt;כאשר תלחץ על הכפתור יתחלפו הפרופילים ותצטרך לבחור שוב.</t>
   </si>
   <si>
-    <t>לאחר כ-15 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "אני". אם את חושבת שפרופיל ימין הוא הפרופיל שלך בחרי בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחרי בכפתור השמאלי אם את חושבת שהפרופיל שלך הוא השמאלי. 
-&lt;br&gt;קחי את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עברו 15 שניות.
-&lt;br&gt;כאשר תלחצי על הכפתור יתחלפו הפרופילים ותצטרכי לבחור שוב.</t>
-  </si>
-  <si>
-    <t>המחשב בדק את תשובותיך ומצא כי מספר טעויות. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכל להמשיך בניסוי. 
-&lt;br&gt;אנא קרא היטב את ההוראות שיוצגו בפניך.</t>
-  </si>
-  <si>
-    <t>המחשב בדק את תשובותיך ומצא מספר טעויות. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכלי להמשיך בניסוי. 
-&lt;br&gt;אנא קראי היטב את ההוראות שיוצגו בפניך.</t>
-  </si>
-  <si>
-    <t>כעת תתבקש לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר &lt;/strong&gt;. 
-&lt;br&gt;לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>כעת תתבקשי לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר &lt;/strong&gt;. 
-&lt;br&gt;לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>וכעת תתבקש לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת כהכי פחות דומה לך.
-לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>וכעת תתבקש לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת כהכי פחות דומה לך.
-&lt;br&gt;לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>וכעת תתבקשי לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת כהכי פחות דומה לך.
-&lt;br&gt;לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>בשלב זה תצפי במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונני היטב בפרופיל, ולאחר מכן העריכי את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
-&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסי להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
-&lt;br&gt; אם תרצי להתרשם פעם נוספת מהפרופיל, תוכלי בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
-  </si>
-  <si>
-    <t>בשלב זה תצפה במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונן היטב בפרופיל, ולאחר מכן הערך את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
-&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסה להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
-&lt;br&gt; אם תרצה להתרשם פעם נוספת מהפרופיל, תוכל בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
-  </si>
-  <si>
-    <t>report.JPG</t>
-  </si>
-  <si>
-    <t>full_screen_1.JPG</t>
-  </si>
-  <si>
-    <t>שימי לב שמעגלי דיווח הדמיון ימוקמו כך שמעליהם ומתחתיהם מופעים עוד שני זוגות מעגלים. זוג המעגלים העליון מציג את מידת הדמיון עליה דיווחת קודם בינך לבין האדם הדומה לך ביותר וזוג המעגלים התחתון מציג את מידת הדמיון עליה דיווחת בינך לבין האדם הכי פחות דומה לך. 
-&lt;br&gt;תוכלי כמובן גם להיעזר במיקומים אלו כדי לדייק את דיווח תחושת הדמיון שלך. כאשר תבחרי מידת דמיון אשר זהה למידת החפיפה בינך לבין הדומה ביותר אליך יצבעו שני זוגות המעגלים בצבע זהה. אותו דבר יקרה כאשר תבחרי מידת דמיון אשר זהה למידת החפיפה בינך לבין האדם הכי פחות דומה לך.</t>
-  </si>
-  <si>
-    <t>שים לב שמעגלי דיווח הדמיון ימוקמו כך שמעליהם ומתחתיהם מופעים עוד שני זוגות מעגלים. זוג המעגלים העליון מציג את מידת הדמיון עליה דיווחת קודם בינך לבין האדם הדומה לך ביותר וזוג המעגלים התחתון מציג את מידת הדמיון עליה דיווחת בינך לבין האדם הכי פחות דומה לך. 
-&lt;br&gt;תוכל כמובן גם להיעזר במיקומים אלו כדי לדייק את דיווח תחושת הדמיון שלך. כאשר תבחר מידת דמיון אשר זהה למידת החפיפה בינך לבין הדומה ביותר אליך יצבעו שני זוגות המעגלים בצבע זהה. אותו דבר יקרה כאשר תבחר מידת דמיון אשר זהה למידת החפיפה בינך לבין האדם הכי פחות דומה לך.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים (כפי שניתן לראות בתמונה המצורפת) - אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "יותר" ו"פחות" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה אתה מרגיש שאתה והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים (כפי שניתן לראות בתמונה המצורפת) - אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "יותר" ו"פחות" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה את מרגישה שאת והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
-</t>
-  </si>
-  <si>
-    <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
-בחלק זה של הניסוי זה תתבקשי לענות פעם נוספת על אותן שאלות כמו בהתחלה 
-אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקשי לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאת בפועל. 
-התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר את המקום אליו את שואף ואיך שהיית במצב אידאלי.
- לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
-בחלק זה של הניסוי זה תתבקש לענות פעם נוספת על אותן שאלות כמו בהתחלה 
-אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקש לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאתה בפועל. 
-התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר את המקום אליו אתה שואף ואיך שהיית במצב אידאלי.
- לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>טופס הסכמה</t>
+    <t>וכעת תתבקש לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת &lt;strong&gt;כהכי פחות דומה לך&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה השתובה של {}, לדעתך.
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>וכעת תתבקשי לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת &lt;strong&gt;כהכי פחות דומה לך&lt;/strong&gt;. כמובן, שאינך יכולה לדעת את התשובות במדויק, לכן נסי לחשוב מה תהיה השתובה של {}, לדעתך.
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
   </si>
 </sst>
 </file>
@@ -776,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +811,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -842,13 +847,13 @@
         <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -944,16 +949,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -968,16 +973,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -988,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>34</v>
@@ -997,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1009,100 +1014,100 @@
         <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1117,13 +1122,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1180,13 +1185,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1201,13 +1206,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1222,20 +1227,20 @@
         <v>16</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
@@ -1243,13 +1248,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1261,16 +1266,16 @@
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1282,16 +1287,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1303,16 +1308,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1327,13 +1332,13 @@
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1348,13 +1353,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1366,16 +1371,16 @@
         <v>11</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1390,16 +1395,13 @@
         <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1413,13 +1415,16 @@
         <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>94</v>
+        <v>73</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -1433,13 +1438,13 @@
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1453,13 +1458,13 @@
         <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1513,58 +1518,58 @@
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1573,7 +1578,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>9</v>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501DD00F-B341-4CE7-AF35-365E32F1FD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD5B477-998D-4AB0-A004-8FE28DD6AEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
   <si>
     <t>phase</t>
   </si>
@@ -257,19 +257,6 @@
   <si>
     <t>המחשב בדק את תשובותיך ומצא מספר טעויות. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכלי להמשיך בניסוי. 
 &lt;br&gt;אנא קראי היטב את ההוראות שיוצגו בפניך.</t>
-  </si>
-  <si>
-    <t>בשלב זה תצפי במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונני היטב בפרופיל, ולאחר מכן העריכי את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
-&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסי להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
-&lt;br&gt; אם תרצי להתרשם פעם נוספת מהפרופיל, תוכלי בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
-  </si>
-  <si>
-    <t>בשלב זה תצפה במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונן היטב בפרופיל, ולאחר מכן הערך את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
-&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסה להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
-&lt;br&gt; אם תרצה להתרשם פעם נוספת מהפרופיל, תוכל בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
-  </si>
-  <si>
-    <t>report.JPG</t>
   </si>
   <si>
     <t>full_screen_1.JPG</t>
@@ -429,6 +416,49 @@
   <si>
     <t>וכעת תתבקשי לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת &lt;strong&gt;כהכי פחות דומה לך&lt;/strong&gt;. כמובן, שאינך יכולה לדעת את התשובות במדויק, לכן נסי לחשוב מה תהיה השתובה של {}, לדעתך.
 &lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>beforeNewProfile</t>
+  </si>
+  <si>
+    <t>בשלב זה תצפה במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונן היטב בכל פרופיל, ולאחר מכן הערך את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
+&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסה להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
+&lt;br&gt; אם תרצה להתרשם פעם נוספת מהפרופיל, תוכל בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
+  </si>
+  <si>
+    <t>בשלב זה תצפה במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונן היטב בכל בפרופיל, ולאחר מכן הערך את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
+&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסה להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
+&lt;br&gt; אם תרצה להתרשם פעם נוספת מהפרופיל, תוכל בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
+  </si>
+  <si>
+    <t>בשלב זה תצפי במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונני היטב בכל בפרופיל, ולאחר מכן העריכי את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
+&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסי להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
+&lt;br&gt; אם תרצי להתרשם פעם נוספת מהפרופיל, תוכלי בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
+  </si>
+  <si>
+    <t>presentAgain</t>
+  </si>
+  <si>
+    <t>מיוד יוצג פרופיל של משתתף חדש &lt;br&gt;
+התבונן היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
+  </si>
+  <si>
+    <t>מיוד יוצג פרופיל של משתתף חדש &lt;br&gt;
+התבונני היטב בהעדפות והמאפיינים השונים ונסי להכיר את אותו אדם.</t>
+  </si>
+  <si>
+    <t>כעת יוצג בשנית הפרופיל של אותו משתתף, זה שצפית בו כעת &lt;br&gt;
+כעת תוכל לעבור מהר יותר ביןבמאפיינים או ההעדפות ולהתעקב היכן שתרצה. מטרתך נותרת לנסות להכיר את אותו אדם ובסופו של דבר להעריך עד כמה אתה מרגיש שאתם דומים.</t>
+  </si>
+  <si>
+    <t>כעת יוצג בשנית הפרופיל של אותו משתתף, זה שצפית בו כעת &lt;br&gt;
+כעת תוכלי לעבור מהר יותר בין במאפיינים או ההעדפות ולהתעקב היכן שתרצי. מטרתך נותרת לנסות להכיר את אותו אדם ובסופו של דבר להעריך עד כמה את מרגישה שאתם דומים.</t>
+  </si>
+  <si>
+    <t>reportNew.JPG</t>
+  </si>
+  <si>
+    <t>PrePresntationInstructions.JPG</t>
   </si>
 </sst>
 </file>
@@ -779,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,13 +877,13 @@
         <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -973,16 +1003,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1017,13 +1047,13 @@
         <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1038,13 +1068,13 @@
         <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1059,13 +1089,13 @@
         <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1080,13 +1110,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1101,13 +1131,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1248,13 +1278,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1332,13 +1362,13 @@
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1353,13 +1383,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1395,13 +1425,13 @@
         <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1415,16 +1445,16 @@
         <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -1438,13 +1468,16 @@
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1524,72 +1557,114 @@
         <v>60</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD5B477-998D-4AB0-A004-8FE28DD6AEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE77AB20-63E2-4340-A0DF-E338BE87A9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="120">
   <si>
     <t>phase</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>During Profile Presentation</t>
-  </si>
-  <si>
-    <t>הסוף</t>
   </si>
   <si>
     <t>text_he</t>
@@ -132,9 +129,6 @@
     <t>will</t>
   </si>
   <si>
-    <t>קראתי את עמוד זה</t>
-  </si>
-  <si>
     <t>אני בן 18 או יותר</t>
   </si>
   <si>
@@ -150,14 +144,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
-קח זמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו.ה</t>
-  </si>
-  <si>
-    <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
-קח זמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום את ראשי התיבות של שמו.ה</t>
-  </si>
-  <si>
     <t>lowSimilarity</t>
   </si>
   <si>
@@ -183,10 +169,6 @@
   </si>
   <si>
     <t>End Screen</t>
-  </si>
-  <si>
-    <t>מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
-קחי זמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו.ה</t>
   </si>
   <si>
     <t>---</t>
@@ -243,12 +225,6 @@
   </si>
   <si>
     <t>concent_agreement</t>
-  </si>
-  <si>
-    <t>מאשר את כלל הפרטים הנ''ל ומסכים מרצוני החופשי להשתתף במחקר זה</t>
-  </si>
-  <si>
-    <t>מאשרת את כלל הפרטים הנ''ל ומסכימה מרצוני החופשי להשתתף במחקר זה</t>
   </si>
   <si>
     <t>המחשב בדק את תשובותיך ומצא כי מספר טעויות. נבקש ממך לבצע מטלה קצרה זו שוב על מנת שתוכל להמשיך בניסוי. 
@@ -303,26 +279,6 @@
 במידת הצורך פני לנסיינ.ית לעזרה.</t>
   </si>
   <si>
-    <t>חשבי על {}, האדם שציינת כהכי פחות דומה לך. חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
-  </si>
-  <si>
-    <t>חשוב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
-אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
-  </si>
-  <si>
-    <t>חשבי על {}, האדם שציינת כדומה לך ביותר. חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא תדרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאת מרגישה שאת ו-{} דומים יותר.</t>
-  </si>
-  <si>
-    <t>חשוב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{},  דומים.
-אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
-ככל שמידת החפיפה גדולה יותר, כך זה אומר שאתה מרגיש שאתה ו-{} דומים יותר.</t>
-  </si>
-  <si>
     <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
 בחלק זה של הניסוי זה תתבקש לענות פעם נוספת על אותן שאלות כמו בהתחלה 
 אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקש לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאתה בפועל. 
@@ -348,24 +304,6 @@
     <t>כעת את מתבקשת לדווח על מידת הדמיון שאת חווה בינך לבין האדם האחר. השתמשי בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.</t>
   </si>
   <si>
-    <t>האימון הסתיים וכעת תמשיכי בביצוע מטלה זו. המטלה זהה מאוד לאימון מלבד מספר הבדלים. בשונה מבאימון, בשלב זה לא יוצגו שני מעגלי החפיפה הנוספים (בינך לבין האדם שציינת כדומה לך ביותר, ובינך לבין האדם שציינת כשונה ממך ביותר), כמו כן צבע מעגלי הדיווח יהיה כעת אפור.
-&lt;br&gt;המטלה נותרת זהה - יש להתבונן במאפיינים שמוצגים, ניתן להתבונן שוב במידת הצורך, כאשר מטרתך תוך כדי ההתבוננות במאפיינים היא לנסות להכיר את אותו אדם. לאחר מכן יש לדווח על תחושת הדמיון בינך לבין האדם שצפית בתכונותיו, בהתאם לחוויתך האישית והפנימית.
-&lt;br&gt;&lt;br&gt;אם יש לך שאלות, ניתן לפנות כעת לנסיינ.ית</t>
-  </si>
-  <si>
-    <t>האימון הסתיים וכעת תמשיך בביצוע מטלה זו. המטלה זהה מאוד לאימון מלבד מספר הבדלים. בשונה מבאימון, בשלב זה לא יוצגו שני מעגלי החפיפה הנוספים (בינך לבין האדם שציינת כדומה לך ביותר, ובינך לבין האדם שציינת כשונה ממך ביותר), כמו כן צבע מעגלי הדיווח יהיה כעת אפור.
-&lt;br&gt;המטלה נותרת זהה - יש להתבונן במאפיינים שמוצגים, ניתן להתבונן שוב במידת הצורך, כאשר מטרתך תוך כדי ההתבוננות במאפיינים היא לנסות להכיר את אותו אדם. לאחר מכן יש לדווח על תחושת הדמיון בינך לבין האדם שצפית בתכונותיו, בהתאם לחוויתך האישית והפנימית.
-&lt;br&gt;&lt;br&gt;אם יש לך שאלות, ניתן לפנות כעת לנסיינ.ית</t>
-  </si>
-  <si>
-    <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
-קח זמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו.ה</t>
-  </si>
-  <si>
-    <t>כעת, מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
-קחי זמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו.ה</t>
-  </si>
-  <si>
     <t>כעת תתבקשי לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכולה לדעת את התשובות במדויק, לכן נסי לחשוב מה תהיה השתובה של {}, לדעתך. 
 &lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
   </si>
@@ -459,6 +397,111 @@
   </si>
   <si>
     <t>PrePresntationInstructions.JPG</t>
+  </si>
+  <si>
+    <t>קראתי עמוד זה</t>
+  </si>
+  <si>
+    <t>אני מאשר ומסכים להשתתף במחקר זה מרצוני החופשי</t>
+  </si>
+  <si>
+    <t>אני מאשרת ומסכימה להשתתף במחקר זה מרצוני החופשי</t>
+  </si>
+  <si>
+    <t>GeneralPhase</t>
+  </si>
+  <si>
+    <t>הבא</t>
+  </si>
+  <si>
+    <t>nextButtonText</t>
+  </si>
+  <si>
+    <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
+קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום את ראשי התיבות של שמו.ה</t>
+  </si>
+  <si>
+    <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
+קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו.ה</t>
+  </si>
+  <si>
+    <t>חשוֹב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{},  דומים.
+אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר.</t>
+  </si>
+  <si>
+    <t>חשוֹב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
+אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר.</t>
+  </si>
+  <si>
+    <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
+קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו או של שמה</t>
+  </si>
+  <si>
+    <t>כעת, מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
+קחי את הזמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו או של שמה</t>
+  </si>
+  <si>
+    <t>מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
+קחי את הזמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו או של שמה</t>
+  </si>
+  <si>
+    <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
+קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום את ראשי התיבות של שמו או של שמה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חשוֹב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
+אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חִשבי על {}, האדם שציינת כדומה לך ביותר. חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא דרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמשי בשני הכפתורים עד שתגיעי לחפיפה המדויקת ביותר לדעתך. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חשוֹב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
+אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חִשבי על {}, האדם שציינת כהכי פחות דומה לך. חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא דרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמשי בשני הכפתורים עד שתגיעי לחפיפה המדויקת ביותר לדעתך. </t>
+  </si>
+  <si>
+    <t>האימון הסתיים וכעת תמשיך בביצוע מטלה זו. המטלה זהה מאוד לאימון מלבד מספר הבדלים. בשונה מבאימון, בשלב זה לא יוצגו שני מעגלי החפיפה הנוספים (בינך לבין האדם שציינת כדומה לך ביותר, ובינך לבין האדם שציינת כשונה ממך ביותר).
+&lt;br&gt;המטלה נותרת זהה - יש להתבונן במאפיינים שמוצגים, ניתן להתבונן שוב במידת הצורך, כאשר מטרתך תוך כדי ההתבוננות במאפיינים היא לנסות להכיר את אותו אדם. לאחר מכן יש לדווח על תחושת הדמיון בינך לבין האדם שצפית בתכונותיו, בהתאם לחוויתך האישית והפנימית.
+&lt;br&gt;&lt;br&gt;אם יש לך שאלות, ניתן לפנות כעת לנסיינ.ית</t>
+  </si>
+  <si>
+    <t>האימון הסתיים וכעת תמשיכי בביצוע מטלה זו. המטלה זהה מאוד לאימון מלבד מספר הבדלים. בשונה מבאימון, בשלב זה לא יוצגו שני מעגלי החפיפה הנוספים (בינך לבין האדם שציינת כדומה לך ביותר, ובינך לבין האדם שציינת כשונה ממך ביותר).
+&lt;br&gt;המטלה נותרת זהה - יש להתבונן במאפיינים שמוצגים, ניתן להתבונן שוב במידת הצורך, כאשר מטרתך תוך כדי ההתבוננות במאפיינים היא לנסות להכיר את אותו אדם. לאחר מכן יש לדווח על תחושת הדמיון בינך לבין האדם שצפית בתכונותיו, בהתאם לחוויתך האישית והפנימית.
+&lt;br&gt;&lt;br&gt;אם יש לך שאלות, ניתן לפנות כעת לנסיינ.ית</t>
+  </si>
+  <si>
+    <t>endTitle</t>
+  </si>
+  <si>
+    <t>הניסוי הסתיים!</t>
+  </si>
+  <si>
+    <t>endSubTitle</t>
+  </si>
+  <si>
+    <t>תודה על השתתפותך : )</t>
+  </si>
+  <si>
+    <t>endInstructions</t>
+  </si>
+  <si>
+    <t>הנתונים נשמרו, קראי כעת לנסיין.ית על מנת שהיא או הוא יוכלו ליסגור את הניסוי. 
+בעוד מספר דקות תקבלי תשלום או קרדיט ובנוסף יחושב עבורך הבונוס כתלות בביצועיך.</t>
+  </si>
+  <si>
+    <t>הנתונים נשמרו, קרא כעת לנסיין.ית על מנת שהיא או הוא יוכלו ליסגור את הניסוי.
+בעוד מספר דקות תקבל תשלום או קרדיט ובנוסף יחושב עבורך הבונוס כתלות בביצועיך.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -528,6 +571,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,864 +861,924 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>87</v>
+        <v>109</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>96</v>
+        <v>73</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>37</v>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>90</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>100</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>107</v>
+        <v>8</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE77AB20-63E2-4340-A0DF-E338BE87A9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB87DB4-D72A-417C-BCE8-F840A9468C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="138">
   <si>
     <t>phase</t>
   </si>
@@ -502,6 +502,60 @@
   <si>
     <t>הנתונים נשמרו, קרא כעת לנסיין.ית על מנת שהיא או הוא יוכלו ליסגור את הניסוי.
 בעוד מספר דקות תקבל תשלום או קרדיט ובנוסף יחושב עבורך הבונוס כתלות בביצועיך.</t>
+  </si>
+  <si>
+    <t>continueButtonText</t>
+  </si>
+  <si>
+    <t>המשך</t>
+  </si>
+  <si>
+    <t>המשיכי</t>
+  </si>
+  <si>
+    <t>thisIsMeText</t>
+  </si>
+  <si>
+    <t>noOneText</t>
+  </si>
+  <si>
+    <t>זה הפרופיל שלי</t>
+  </si>
+  <si>
+    <t>אף אחד מהנ''ל</t>
+  </si>
+  <si>
+    <t>moreSimButtonText</t>
+  </si>
+  <si>
+    <t>lessSimButtonText</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>continueTaskButtonText</t>
+  </si>
+  <si>
+    <t>המשך מטלה</t>
+  </si>
+  <si>
+    <t>המשיכי מטלה</t>
+  </si>
+  <si>
+    <t>pesentAgainButtonText</t>
+  </si>
+  <si>
+    <t>continueToNextProfileButtonText</t>
+  </si>
+  <si>
+    <t>הצג שוב</t>
+  </si>
+  <si>
+    <t>המשך לפרופיל הבא</t>
   </si>
 </sst>
 </file>
@@ -545,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -581,6 +635,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,318 +958,323 @@
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>72</v>
+        <v>26</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1220,187 +1283,189 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1409,169 +1474,166 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>78</v>
+        <v>13</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>58</v>
+        <v>14</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>92</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1580,61 +1642,61 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1643,142 +1705,313 @@
     </row>
     <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="4"/>
+        <v>85</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="4"/>
+      <c r="C40" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+    <row r="51" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D51" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E51" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB87DB4-D72A-417C-BCE8-F840A9468C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22766164-BEB8-4434-9C9E-755BEEF42043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,22 +919,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>96</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>96</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>96</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>96</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>96</v>
       </c>
@@ -1067,7 +1067,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>96</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>96</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>96</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>96</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1281,7 +1281,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>11</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>10</v>
       </c>
@@ -1724,7 +1724,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>4</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>4</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>4</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -1853,7 +1853,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
@@ -1916,7 +1916,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>5</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>47</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>39</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>39</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>39</v>
       </c>
@@ -2008,10 +2008,6 @@
       <c r="E51" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22766164-BEB8-4434-9C9E-755BEEF42043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F393660A-01D0-44AB-AD65-8A5177E77CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="135">
   <si>
     <t>phase</t>
   </si>
@@ -180,16 +180,6 @@
     <t>Pre Get Min Profile</t>
   </si>
   <si>
-    <t xml:space="preserve">בסוף הניסוי תקבלי תשלום כספי נוסף כתלות בביצועיך במהלך הניסוי!
-בניסוי משולבים מדדים אשר מעריכים את מידת העקביות שלך. ככל שתהי עקבית ומדויקת יותר, כך התשלום הכספי הנוסף יהיה גדול יותר. חשוב מאוד שהערכת הדמיון שלך תהיה מבוססת על חווייתך האישית האמיתית.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בסוף הניסוי תקבל תשלום כספי נוסף כתלות בביצועיך במהלך הניסוי!
-בניסוי משולבים מדדים אשר מעריכים את מידת העקביות שלך. ככל שתהיה עקבי ומדויק יותר, כך התשלום הכספי הנוסף יהיה גדול יותר. חשוב מאוד שהערכת הדמיון שלך תהיה מבוססת על חווייתך האישית האמיתית.
-</t>
-  </si>
-  <si>
     <t>practiceTrialsInstructions</t>
   </si>
   <si>
@@ -218,10 +208,6 @@
   </si>
   <si>
     <t>report_instructions</t>
-  </si>
-  <si>
-    <t>כעת את מתבקשת לדווח על מידת הדמיון שאת חווה בינך לבין האדם האחר. השתמש בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.
-בנוסף תוכל לראות את מידת הדמיון בין לבין האדם הדומה לך ביותר או האדם הכי פחות דומה לך, כפי שאתה דיווחת.</t>
   </si>
   <si>
     <t>concent_agreement</t>
@@ -244,14 +230,6 @@
   <si>
     <t>שים לב שמעגלי דיווח הדמיון ימוקמו כך שמעליהם ומתחתיהם מופעים עוד שני זוגות מעגלים. זוג המעגלים העליון מציג את מידת הדמיון עליה דיווחת קודם בינך לבין האדם הדומה לך ביותר וזוג המעגלים התחתון מציג את מידת הדמיון עליה דיווחת בינך לבין האדם הכי פחות דומה לך. 
 &lt;br&gt;תוכל כמובן גם להיעזר במיקומים אלו כדי לדייק את דיווח תחושת הדמיון שלך. כאשר תבחר מידת דמיון אשר זהה למידת החפיפה בינך לבין הדומה ביותר אליך יצבעו שני זוגות המעגלים בצבע זהה. אותו דבר יקרה כאשר תבחר מידת דמיון אשר זהה למידת החפיפה בינך לבין האדם הכי פחות דומה לך.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים (כפי שניתן לראות בתמונה המצורפת) - אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "יותר" ו"פחות" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה אתה מרגיש שאתה והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים (כפי שניתן לראות בתמונה המצורפת) - אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "יותר" ו"פחות" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה את מרגישה שאת והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
-</t>
   </si>
   <si>
     <t>טופס הסכמה</t>
@@ -298,56 +276,6 @@
 &lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
   </si>
   <si>
-    <t>כעת אתה מתבקש לדווח על מידת הדמיון שאתה חווה בינך לבין האדם האחר. השתמש בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.</t>
-  </si>
-  <si>
-    <t>כעת את מתבקשת לדווח על מידת הדמיון שאת חווה בינך לבין האדם האחר. השתמשי בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.</t>
-  </si>
-  <si>
-    <t>כעת תתבקשי לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכולה לדעת את התשובות במדויק, לכן נסי לחשוב מה תהיה השתובה של {}, לדעתך. 
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>כעת תתבקש לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה השתובה של {}, לדעתך.
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>בחלק זה של הניסוי זה תתבקש לענות על מספר שאלות.
-{}
-&lt;br&gt;התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
-&lt;br&gt;לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.
-&lt;br&gt; שים לב, רק לאחר לחיצה על הסמן ובחירת מיקומו יתאפשר להמשיך לשלב הבא.</t>
-  </si>
-  <si>
-    <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
-{}
-&lt;br&gt;התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר אותך בצורה הטובה והמדויקת ביותר.
-&lt;br&gt;לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.
-&lt;br&gt; שימי לב, רק לאחר לחיצה על הסמן ובחירת מיקומו יתאפשר להמשיך לשלב הבא.</t>
-  </si>
-  <si>
-    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
-בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את המאפיינים אותם דירגת כעת, והשני הוא של משתתף אחר. 
-המטלה שלך היא להתבונן היטב בשני הפרופילים, ולזהות מה הוא הפרופיל שלך.
-&lt;br&gt; שימי לב, במקרים מסויימים אף אחד מהפרופולים לא יהיה הפרופיל שלך, במקרה זה תוכלי ללחוץ על הכפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". חשוב לבחון את כלל המאפיינים של כל פרופיל לפני שמגיעים להחלטה.</t>
-  </si>
-  <si>
-    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
-בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את המאפיינים אותם דירגת כעת, והשני הוא של משתתף אחר. 
-המטלה שלך היא להתבונן היטב בשני הפרופילים, ולזהות מה הוא הפרופיל שלך.
-&lt;br&gt; שים לב, במקרים מסויימים אף אחד מהפרופולים לא יהיה הפרופיל שלך, במקרה זה תוכל ללחוץ על הכפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". חשוב לבחון את כלל המאפיינים של כל פרופיל לפני שמגיעים להחלטה.</t>
-  </si>
-  <si>
-    <t>לאחר כ-15 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "זה הפרופיל שלי". אם את חושבת שפרופיל ימין הוא הפרופיל שלך בחרי בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחרי בכפתור השמאלי אם את חושבת שהפרופיל שלך הוא השמאלי. 
-&lt;br&gt;קחי את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עברו 15 שניות.
-&lt;br&gt;כאשר תלחצי על הכפתור יתחלפו הפרופילים ותצטרכי לבחור שוב.</t>
-  </si>
-  <si>
-    <t>לאחר כ-15 שניות יופיע מתחת לכל אחד מהפרופילים כפתור שעליו כתוב "זה הפרופיל שלי". אם אתה חושב שפרופיל ימין הוא הפרופיל שלך בחר בכפתור הימני, זה שיופיע מתחת לפרופיל הימני. לחילופין, בחר בכפתור השמאלי אם אתה חושב שהפרופיל שלך הוא השמאלי. 
-&lt;br&gt;קח את כל הזמן הדרוש כדי להגיע להחלטה הנכונה, גם אם כבר עברו 15 שניות.
-&lt;br&gt;כאשר תלחץ על הכפתור יתחלפו הפרופילים ותצטרך לבחור שוב.</t>
-  </si>
-  <si>
     <t>וכעת תתבקש לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת &lt;strong&gt;כהכי פחות דומה לך&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה השתובה של {}, לדעתך.
 &lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
   </si>
@@ -359,21 +287,6 @@
     <t>beforeNewProfile</t>
   </si>
   <si>
-    <t>בשלב זה תצפה במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונן היטב בכל פרופיל, ולאחר מכן הערך את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
-&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסה להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
-&lt;br&gt; אם תרצה להתרשם פעם נוספת מהפרופיל, תוכל בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
-  </si>
-  <si>
-    <t>בשלב זה תצפה במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונן היטב בכל בפרופיל, ולאחר מכן הערך את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
-&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסה להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
-&lt;br&gt; אם תרצה להתרשם פעם נוספת מהפרופיל, תוכל בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
-  </si>
-  <si>
-    <t>בשלב זה תצפי במספר פרופילים של אנשים. כל פרופיל יורכב ממספר מאפיינים המתארים אדם אחר. התבונני היטב בכל בפרופיל, ולאחר מכן העריכי את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים. 
-&lt;br&gt;בשלב הראשון יוצגו בפניך בסדר אקראי המאפיינים השונים של אותו אדם, כאשר כל מאפיין יוצג מספר פעמים. נסי להתבונן היטב במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. 
-&lt;br&gt; אם תרצי להתרשם פעם נוספת מהפרופיל, תוכלי בסוף שלב זה ללחוץ על הכפתור "הצג שוב" ולאחר מכן יוצגו שוב כלל המאפיינים.</t>
-  </si>
-  <si>
     <t>presentAgain</t>
   </si>
   <si>
@@ -425,16 +338,6 @@
 קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו.ה</t>
   </si>
   <si>
-    <t>חשוֹב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{},  דומים.
-אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר.</t>
-  </si>
-  <si>
-    <t>חשוֹב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
-אנא תדרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר.</t>
-  </si>
-  <si>
     <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
 קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו או של שמה</t>
   </si>
@@ -449,26 +352,6 @@
   <si>
     <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
 קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום את ראשי התיבות של שמו או של שמה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חשוֹב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
-אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">חִשבי על {}, האדם שציינת כדומה לך ביותר. חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא דרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמשי בשני הכפתורים עד שתגיעי לחפיפה המדויקת ביותר לדעתך. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">חשוֹב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
-אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">חִשבי על {}, האדם שציינת כהכי פחות דומה לך. חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא דרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "יותר" או "פחות" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמשי בשני הכפתורים עד שתגיעי לחפיפה המדויקת ביותר לדעתך. </t>
   </si>
   <si>
     <t>האימון הסתיים וכעת תמשיך בביצוע מטלה זו. המטלה זהה מאוד לאימון מלבד מספר הבדלים. בשונה מבאימון, בשלב זה לא יוצגו שני מעגלי החפיפה הנוספים (בינך לבין האדם שציינת כדומה לך ביותר, ובינך לבין האדם שציינת כשונה ממך ביותר).
@@ -556,6 +439,104 @@
   </si>
   <si>
     <t>המשך לפרופיל הבא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חשוֹב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
+אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חִשבי על {}, האדם שציינת כדומה לך ביותר. חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא דרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמשי בשני הכפתורים עד שתגיעי לחפיפה המדויקת ביותר לדעתך. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חִשבי על {}, האדם שציינת כהכי פחות דומה לך. חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא דרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמשי בשני הכפתורים עד שתגיעי לחפיפה המדויקת ביותר לדעתך. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חשוֹב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
+אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקש לענות על מספר שאלות.
+{}
+&lt;br&gt;המענה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
+&lt;br&gt;לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.
+&lt;br&gt; שים לב, רק לאחר לחיצה על הסמן ובחירת מיקומו יתאפשר להמשיך לשלב הבא.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
+{}
+&lt;br&gt;המענה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר אותך בצורה הטובה והמדויקת ביותר.
+&lt;br&gt;לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.
+&lt;br&gt; שימי לב, רק לאחר לחיצה על הסמן ובחירת מיקומו יתאפשר להמשיך לשלב הבא.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים (כפי שניתן לראות בתמונה המצורפת) - אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "+" -" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה אתה מרגיש שאתה והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים (כפי שניתן לראות בתמונה המצורפת) - אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "+" -" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה את מרגישה שאת והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
+</t>
+  </si>
+  <si>
+    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
+בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את הדירוגים שלך כפי שדירגת כעת, והשני הוא של משתתף אחר. 
+התבונן היטב בשני הפרופילים וזהה מה הוא הפרופיל שלך.
+&lt;br&gt; שים לב, ייתכן גם ואף אחד מהפרופילים לא יהיה הפרופיל שלך, במקרה כזה לחץ על הכפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". הקפד לבחון את כלל המאפיינים של כל פרופיל לפני שתגיע להחלטה.</t>
+  </si>
+  <si>
+    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
+בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את הדירוגים שלך כפי שדירגת כעת, והשני הוא של משתתף אחר. התבונני היטב בשני הפרופילים וזהי מה הוא הפרופיל שלך.
+&lt;br&gt; שימי לב, ייתכן גם ואף אחד מהפרופילים לא יהיה הפרופיל שלך, במקרה כזה ליחצי על הכפתור האמצעי שבו יהיה רשום - אף אחד מהנ"ל. הקפידי לבחון את כלל המאפיינים של כל פרופיל לפני שתגיעי להחלטה.</t>
+  </si>
+  <si>
+    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
+בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את הדירוגים שלך כפי שדירגת כעת, והשני הוא של משתתף אחר. התבונן היטב בשני הפרופילים וזהה מה הוא הפרופיל שלך.
+&lt;br&gt; שים לב, ייתכן גם ואף אחד מהפרופילים לא יהיה הפרופיל שלך, במקרה כזה לחץ על הכפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". הקפד לבחון את כלל המאפיינים של כל פרופיל לפני שתגיע להחלטה.</t>
+  </si>
+  <si>
+    <t>לאחר ששני הפרופילים יוצגו בפניך, תהיה השהייה קצרה עד שיופיעו הכפתורים בעזרתם תוכלי לבחור מה הוא הפרופיל שלך, או לציין שאף אחד מהפרופילים אינו שלך. קחי את כל הזמן הדרוש לך לביצוע המטלה, אין חובה ללחוץ על אחד הכפתורים מיד.</t>
+  </si>
+  <si>
+    <t>לאחר ששני הפרופילים יוצגו בפניך, תהיה השהייה קצרה עד שיופיעו הכפתורים בעזרתם תוכל לבחור מה הוא הפרופיל שלך, או לציין שאף אחד מהפרופילים אינו שלך. קח את כל הזמן הדרוש לך לביצוע המטלה, אין חובה ללחוץ על אחד הכפתורים מיד.</t>
+  </si>
+  <si>
+    <t>כעת תתבקש לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה התשובה של {}, לדעתך.
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>כעת תתבקשי לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכולה לדעת את התשובות במדויק, לכן נסי לחשוב מה תהיה התשובה של {}, לדעתך. 
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>כעת תצפי במספר פרופילים של אנשים. כל פרופיל יורכב מדירוג מאפיינים המתארים אדם אחר. התבונני היטב בכל בפרופיל, ולאחר מכן העריכי את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים.
+&lt;br&gt;אנא השתמשי במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. אם תרצי להתרשם פעם נוספת מהפרופיל, תוכלי ללחוץ על הכפתור "הצג שוב".</t>
+  </si>
+  <si>
+    <t>כעת תצפה במספר פרופילים של אנשים. כל פרופיל יורכב מדירוג מאפיינים המתארים אדם אחר. התבונן היטב בכל בפרופיל, ולאחר מכן הערך את מידת הדמיון בינך לבין כל אחד מהאנשים האחרים.
+&lt;br&gt;אנא השתמש במידע שיוצג לך על מנת לנסות להכיר את אותו אדם. אם תרצה להתרשם פעם נוספת מהפרופיל, תוכל ללחוץ על הכפתור "הצג שוב".</t>
+  </si>
+  <si>
+    <t>בסוף הניסוי תקבל תשלום כספי נוסף כתלות בביצועיך במהלך הניסוי!
+&lt;br&gt;בניסוי משולבים מדדים אשר מעריכים את מידת האמינות והדיוק של תשובותיך. ככל שתשובותיך יהיו אמינות ומדויקות יותר, כך התשלום הכספי הנוסף יהיה גדול יותר.
+&lt;br&gt;חשוב מאוד שהערכת הדמיון שלך תהיה מבוססת על חווייתך האישית האמיתית.</t>
+  </si>
+  <si>
+    <t>בסוף הניסוי תקבלי תשלום כספי נוסף כתלות בביצועיך במהלך הניסוי!
+&lt;br&gt;בניסוי משולבים מדדים אשר מעריכים את מידת האמינות והדיוק של תשובותיך. ככל שתשובותיך יהיו אמינות ומדויקות יותר, כך התשלום הכספי הנוסף יהיה גדול יותר.
+&lt;br&gt;חשוב מאוד שהערכת הדמיון שלך תהיה מבוססת על חווייתך האישית האמיתית.</t>
+  </si>
+  <si>
+    <t>אנא דווחי על מידת הדמיון שאת חווה בינך לבין האדם האחר.
+&lt;br&gt;השתמש בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.</t>
+  </si>
+  <si>
+    <t>אנא דווח על מידת הדמיון שאתה חווה בינך לבין האדם האחר.
+&lt;br&gt;השתמש בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.</t>
   </si>
 </sst>
 </file>
@@ -921,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +932,7 @@
         <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -960,19 +941,19 @@
     </row>
     <row r="2" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -981,19 +962,19 @@
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1003,19 +984,19 @@
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1025,19 +1006,19 @@
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1047,19 +1028,19 @@
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1069,19 +1050,19 @@
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1091,19 +1072,19 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1113,19 +1094,19 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1135,19 +1116,19 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1184,13 +1165,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1226,13 +1207,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1286,16 +1267,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1310,16 +1291,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1333,13 +1314,13 @@
         <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1354,13 +1335,13 @@
         <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1375,13 +1356,13 @@
         <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1396,13 +1377,13 @@
         <v>38</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1417,13 +1398,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1438,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1585,13 +1566,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1603,16 +1584,16 @@
         <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1624,16 +1605,16 @@
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1645,23 +1626,23 @@
         <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
@@ -1669,20 +1650,20 @@
         <v>8</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>10</v>
       </c>
@@ -1690,13 +1671,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1708,23 +1689,23 @@
         <v>10</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
@@ -1732,19 +1713,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>4</v>
       </c>
@@ -1752,16 +1733,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1775,16 +1756,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1798,13 +1779,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -1853,21 +1834,21 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1879,16 +1860,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -1900,16 +1881,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -1921,16 +1902,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -1939,19 +1920,19 @@
     </row>
     <row r="48" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -1963,16 +1944,16 @@
         <v>39</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,16 +1961,16 @@
         <v>39</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1997,16 +1978,16 @@
         <v>39</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F393660A-01D0-44AB-AD65-8A5177E77CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D15D64-C656-482D-B90D-4104D489767E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D15D64-C656-482D-B90D-4104D489767E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DDC6A6-8B77-40D3-894D-AEDBC2C9D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,14 +290,6 @@
     <t>presentAgain</t>
   </si>
   <si>
-    <t>מיוד יוצג פרופיל של משתתף חדש &lt;br&gt;
-התבונן היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
-  </si>
-  <si>
-    <t>מיוד יוצג פרופיל של משתתף חדש &lt;br&gt;
-התבונני היטב בהעדפות והמאפיינים השונים ונסי להכיר את אותו אדם.</t>
-  </si>
-  <si>
     <t>כעת יוצג בשנית הפרופיל של אותו משתתף, זה שצפית בו כעת &lt;br&gt;
 כעת תוכל לעבור מהר יותר ביןבמאפיינים או ההעדפות ולהתעקב היכן שתרצה. מטרתך נותרת לנסות להכיר את אותו אדם ובסופו של דבר להעריך עד כמה אתה מרגיש שאתם דומים.</t>
   </si>
@@ -537,6 +529,12 @@
   <si>
     <t>אנא דווח על מידת הדמיון שאתה חווה בינך לבין האדם האחר.
 &lt;br&gt;השתמש בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.</t>
+  </si>
+  <si>
+    <t>מיוד יוצג פרופיל של משתתף חדש. התבונן היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
+  </si>
+  <si>
+    <t>מיוד יוצג פרופיל של משתתף חדש. התבונני היטב בהעדפות והמאפיינים השונים ונסי להכיר את אותו אדם.</t>
   </si>
 </sst>
 </file>
@@ -902,20 +900,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -939,42 +937,42 @@
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -982,21 +980,21 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1004,21 +1002,21 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1026,21 +1024,21 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1048,21 +1046,21 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="D7" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1070,21 +1068,21 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1092,21 +1090,21 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1114,21 +1112,21 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1136,7 +1134,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1157,7 +1155,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1178,7 +1176,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1199,7 +1197,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
@@ -1207,20 +1205,20 @@
         <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1241,7 +1239,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1260,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1270,20 +1268,20 @@
         <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
@@ -1306,7 +1304,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -1314,20 +1312,20 @@
         <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
@@ -1335,20 +1333,20 @@
         <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -1356,20 +1354,20 @@
         <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -1377,20 +1375,20 @@
         <v>38</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -1398,20 +1396,20 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
@@ -1432,7 +1430,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
@@ -1453,7 +1451,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
@@ -1474,7 +1472,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +1493,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
@@ -1516,7 +1514,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>11</v>
       </c>
@@ -1537,7 +1535,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
@@ -1558,7 +1556,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
@@ -1566,20 +1564,20 @@
         <v>8</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
@@ -1600,7 +1598,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>3</v>
       </c>
@@ -1621,7 +1619,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>3</v>
       </c>
@@ -1642,7 +1640,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
@@ -1650,20 +1648,20 @@
         <v>8</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>10</v>
       </c>
@@ -1671,20 +1669,20 @@
         <v>8</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>10</v>
       </c>
@@ -1705,7 +1703,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
@@ -1713,19 +1711,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>4</v>
       </c>
@@ -1733,22 +1731,22 @@
         <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>4</v>
       </c>
@@ -1765,13 +1763,13 @@
         <v>57</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>4</v>
       </c>
@@ -1779,20 +1777,20 @@
         <v>8</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
@@ -1813,7 +1811,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1832,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
@@ -1842,20 +1840,20 @@
         <v>52</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
@@ -1863,20 +1861,20 @@
         <v>67</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
@@ -1884,20 +1882,20 @@
         <v>68</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>5</v>
       </c>
@@ -1905,20 +1903,20 @@
         <v>43</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>45</v>
       </c>
@@ -1939,55 +1937,55 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="D51" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DDC6A6-8B77-40D3-894D-AEDBC2C9D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A87107-226E-4F45-8C0B-002D9F4FA6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="127">
   <si>
     <t>phase</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Pre Get Min Profile</t>
   </si>
   <si>
-    <t>practiceTrialsInstructions</t>
-  </si>
-  <si>
     <t>onError</t>
   </si>
   <si>
@@ -222,14 +219,6 @@
   </si>
   <si>
     <t>full_screen_1.JPG</t>
-  </si>
-  <si>
-    <t>שימי לב שמעגלי דיווח הדמיון ימוקמו כך שמעליהם ומתחתיהם מופעים עוד שני זוגות מעגלים. זוג המעגלים העליון מציג את מידת הדמיון עליה דיווחת קודם בינך לבין האדם הדומה לך ביותר וזוג המעגלים התחתון מציג את מידת הדמיון עליה דיווחת בינך לבין האדם הכי פחות דומה לך. 
-&lt;br&gt;תוכלי כמובן גם להיעזר במיקומים אלו כדי לדייק את דיווח תחושת הדמיון שלך. כאשר תבחרי מידת דמיון אשר זהה למידת החפיפה בינך לבין הדומה ביותר אליך יצבעו שני זוגות המעגלים בצבע זהה. אותו דבר יקרה כאשר תבחרי מידת דמיון אשר זהה למידת החפיפה בינך לבין האדם הכי פחות דומה לך.</t>
-  </si>
-  <si>
-    <t>שים לב שמעגלי דיווח הדמיון ימוקמו כך שמעליהם ומתחתיהם מופעים עוד שני זוגות מעגלים. זוג המעגלים העליון מציג את מידת הדמיון עליה דיווחת קודם בינך לבין האדם הדומה לך ביותר וזוג המעגלים התחתון מציג את מידת הדמיון עליה דיווחת בינך לבין האדם הכי פחות דומה לך. 
-&lt;br&gt;תוכל כמובן גם להיעזר במיקומים אלו כדי לדייק את דיווח תחושת הדמיון שלך. כאשר תבחר מידת דמיון אשר זהה למידת החפיפה בינך לבין הדומה ביותר אליך יצבעו שני זוגות המעגלים בצבע זהה. אותו דבר יקרה כאשר תבחר מידת דמיון אשר זהה למידת החפיפה בינך לבין האדם הכי פחות דומה לך.</t>
   </si>
   <si>
     <t>טופס הסכמה</t>
@@ -257,25 +246,6 @@
 במידת הצורך פני לנסיינ.ית לעזרה.</t>
   </si>
   <si>
-    <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
-בחלק זה של הניסוי זה תתבקש לענות פעם נוספת על אותן שאלות כמו בהתחלה 
-אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקש לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאתה בפועל. 
-התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר את המקום אליו אתה שואף ואיך שהיית במצב אידאלי.
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
-בחלק זה של הניסוי זה תתבקש לענות פעם נוספת על אותן שאלות כמו בהתחלה אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקש לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאתה בפועל. 
-&lt;br&gt;התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר את המקום אליו אתה שואף ואיך שהיית במצב אידאלי.
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>אצל רובנו התפיסה של מי שאנחנו מחולקת לאיך שאנחנו תופסים את עצמנו כעת ואיך שאנחנו היינו רוצים להיות, כלומר איזה אדם היינו רוצים להיות במצב אידאלי.
-בחלק זה של הניסוי זה תתבקשי לענות פעם נוספת על אותן שאלות כמו בהתחלה אשר עוסקות במאפיינים השונים שלך, אלא שהפעם תתבקשי לדרג את המאפיינים לפי איך שהיית רוצה להיות ולא לפי איך שאת בפועל. 
-&lt;br&gt;התשובה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר את המקום אליו את שואף ואיך שהיית במצב אידאלי.
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
     <t>וכעת תתבקש לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת &lt;strong&gt;כהכי פחות דומה לך&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה השתובה של {}, לדעתך.
 &lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
   </si>
@@ -298,12 +268,6 @@
 כעת תוכלי לעבור מהר יותר בין במאפיינים או ההעדפות ולהתעקב היכן שתרצי. מטרתך נותרת לנסות להכיר את אותו אדם ובסופו של דבר להעריך עד כמה את מרגישה שאתם דומים.</t>
   </si>
   <si>
-    <t>reportNew.JPG</t>
-  </si>
-  <si>
-    <t>PrePresntationInstructions.JPG</t>
-  </si>
-  <si>
     <t>קראתי עמוד זה</t>
   </si>
   <si>
@@ -344,16 +308,6 @@
   <si>
     <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
 קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום את ראשי התיבות של שמו או של שמה</t>
-  </si>
-  <si>
-    <t>האימון הסתיים וכעת תמשיך בביצוע מטלה זו. המטלה זהה מאוד לאימון מלבד מספר הבדלים. בשונה מבאימון, בשלב זה לא יוצגו שני מעגלי החפיפה הנוספים (בינך לבין האדם שציינת כדומה לך ביותר, ובינך לבין האדם שציינת כשונה ממך ביותר).
-&lt;br&gt;המטלה נותרת זהה - יש להתבונן במאפיינים שמוצגים, ניתן להתבונן שוב במידת הצורך, כאשר מטרתך תוך כדי ההתבוננות במאפיינים היא לנסות להכיר את אותו אדם. לאחר מכן יש לדווח על תחושת הדמיון בינך לבין האדם שצפית בתכונותיו, בהתאם לחוויתך האישית והפנימית.
-&lt;br&gt;&lt;br&gt;אם יש לך שאלות, ניתן לפנות כעת לנסיינ.ית</t>
-  </si>
-  <si>
-    <t>האימון הסתיים וכעת תמשיכי בביצוע מטלה זו. המטלה זהה מאוד לאימון מלבד מספר הבדלים. בשונה מבאימון, בשלב זה לא יוצגו שני מעגלי החפיפה הנוספים (בינך לבין האדם שציינת כדומה לך ביותר, ובינך לבין האדם שציינת כשונה ממך ביותר).
-&lt;br&gt;המטלה נותרת זהה - יש להתבונן במאפיינים שמוצגים, ניתן להתבונן שוב במידת הצורך, כאשר מטרתך תוך כדי ההתבוננות במאפיינים היא לנסות להכיר את אותו אדם. לאחר מכן יש לדווח על תחושת הדמיון בינך לבין האדם שצפית בתכונותיו, בהתאם לחוויתך האישית והפנימית.
-&lt;br&gt;&lt;br&gt;אם יש לך שאלות, ניתן לפנות כעת לנסיינ.ית</t>
   </si>
   <si>
     <t>endTitle</t>
@@ -451,28 +405,6 @@
     <t xml:space="preserve">חשוֹב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
 אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
 ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
-  </si>
-  <si>
-    <t>בחלק זה של הניסוי זה תתבקש לענות על מספר שאלות.
-{}
-&lt;br&gt;המענה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
-&lt;br&gt;לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.
-&lt;br&gt; שים לב, רק לאחר לחיצה על הסמן ובחירת מיקומו יתאפשר להמשיך לשלב הבא.</t>
-  </si>
-  <si>
-    <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
-{}
-&lt;br&gt;המענה לשאלות תיעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר אותך בצורה הטובה והמדויקת ביותר.
-&lt;br&gt;לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.
-&lt;br&gt; שימי לב, רק לאחר לחיצה על הסמן ובחירת מיקומו יתאפשר להמשיך לשלב הבא.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים (כפי שניתן לראות בתמונה המצורפת) - אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "+" -" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה אתה מרגיש שאתה והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים (כפי שניתן לראות בתמונה המצורפת) - אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "+" -" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה את מרגישה שאת והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
-</t>
   </si>
   <si>
     <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
@@ -491,12 +423,6 @@
 &lt;br&gt; שים לב, ייתכן גם ואף אחד מהפרופילים לא יהיה הפרופיל שלך, במקרה כזה לחץ על הכפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". הקפד לבחון את כלל המאפיינים של כל פרופיל לפני שתגיע להחלטה.</t>
   </si>
   <si>
-    <t>לאחר ששני הפרופילים יוצגו בפניך, תהיה השהייה קצרה עד שיופיעו הכפתורים בעזרתם תוכלי לבחור מה הוא הפרופיל שלך, או לציין שאף אחד מהפרופילים אינו שלך. קחי את כל הזמן הדרוש לך לביצוע המטלה, אין חובה ללחוץ על אחד הכפתורים מיד.</t>
-  </si>
-  <si>
-    <t>לאחר ששני הפרופילים יוצגו בפניך, תהיה השהייה קצרה עד שיופיעו הכפתורים בעזרתם תוכל לבחור מה הוא הפרופיל שלך, או לציין שאף אחד מהפרופילים אינו שלך. קח את כל הזמן הדרוש לך לביצוע המטלה, אין חובה ללחוץ על אחד הכפתורים מיד.</t>
-  </si>
-  <si>
     <t>כעת תתבקש לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה התשובה של {}, לדעתך.
 &lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
   </si>
@@ -535,6 +461,44 @@
   </si>
   <si>
     <t>מיוד יוצג פרופיל של משתתף חדש. התבונני היטב בהעדפות והמאפיינים השונים ונסי להכיר את אותו אדם.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקש לדרג את המאפיינים שלך, אלא שהפעם תתבקש לדרג את המאפיינים, לא כפי שאתה כעת, אלא כפי שהיית רוצה להיות באופן אידאלי.&lt;br&gt;
+התשובה לשאלות תעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר את המקום אליו אתה שואף וכיצד היית רוצה להיות במצב אידאלי.&lt;br&gt;
+יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקשי לדרג את המאפיינים שלך, אלא שהפעם תתבקשי לדרג את המאפיינים, לא כפי שאת כעת, אלא כפי שהיית רוצה להיות באופן אידאלי.&lt;br&gt;
+התשובה לשאלות תעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר את המקום אליו את שואפת וכיצד היית רוצה להיות במצב אידאלי.&lt;br&gt;
+יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
+{}
+&lt;br&gt;המענה לשאלות יתבצע על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר אותך בצורה הטובה והמדויקת ביותר.
+&lt;br&gt;לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.
+&lt;br&gt; שימי לב, רק לאחר לחיצה על הסמן ובחירת מיקומו תוכלי להמשיך לשלב הבא.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקש לענות על מספר שאלות.
+{}
+&lt;br&gt;המענה לשאלות יתבצע על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
+&lt;br&gt;לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.
+&lt;br&gt; שים לב, רק לאחר לחיצה על הסמן ובחירת מיקומו תוכל להמשיך לשלב הבא.</t>
+  </si>
+  <si>
+    <t>לאחר ששני הפרופילים יוצגו בפניך ולאחר השהייה קצרה, יופיעו הכפתורים בעזרתם תוכלי לבחור מה הוא הפרופיל שלך, או לציין שאף אחד מהפרופילים אינו שלך. קחי את כל הזמן הדרוש לך לביצוע המטלה.</t>
+  </si>
+  <si>
+    <t>לאחר ששני הפרופילים יוצגו בפניך ולאחר השהייה קצרה, יופיעו הכפתורים בעזרתם תוכל לבחור מה הוא הפרופיל שלך, או לציין שאף אחד מהפרופילים אינו שלך. קח את כל הזמן הדרוש לך לביצוע המטלה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים, אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "+" -" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה את מרגישה שאת והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים, אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "+" -" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה אתה מרגיש שאתה והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
+</t>
   </si>
 </sst>
 </file>
@@ -898,22 +862,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -930,49 +894,49 @@
         <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -980,21 +944,21 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1002,21 +966,21 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1024,21 +988,21 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1046,21 +1010,21 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1068,21 +1032,21 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1090,21 +1054,21 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1112,21 +1076,21 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1134,7 +1098,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1155,7 +1119,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1163,20 +1127,20 @@
         <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1197,7 +1161,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
@@ -1205,20 +1169,20 @@
         <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1239,7 +1203,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1260,28 +1224,28 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
@@ -1289,22 +1253,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -1312,20 +1276,20 @@
         <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
@@ -1333,20 +1297,20 @@
         <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -1354,20 +1318,20 @@
         <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -1375,20 +1339,20 @@
         <v>38</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -1396,20 +1360,20 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
@@ -1417,20 +1381,20 @@
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
@@ -1451,7 +1415,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
@@ -1472,7 +1436,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
@@ -1493,7 +1457,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
@@ -1514,7 +1478,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>11</v>
       </c>
@@ -1535,7 +1499,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
@@ -1556,7 +1520,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
@@ -1564,83 +1528,83 @@
         <v>8</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
@@ -1648,20 +1612,20 @@
         <v>8</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>10</v>
       </c>
@@ -1682,28 +1646,28 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
@@ -1711,19 +1675,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>4</v>
       </c>
@@ -1731,261 +1695,215 @@
         <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="C40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>130</v>
+        <v>31</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/instructions.xlsx
+++ b/ipa_1_2/myUtils/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A87107-226E-4F45-8C0B-002D9F4FA6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B2E594-3353-4176-AC0F-35CB35747579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="128">
   <si>
     <t>phase</t>
   </si>
@@ -449,14 +449,6 @@
 &lt;br&gt;חשוב מאוד שהערכת הדמיון שלך תהיה מבוססת על חווייתך האישית האמיתית.</t>
   </si>
   <si>
-    <t>אנא דווחי על מידת הדמיון שאת חווה בינך לבין האדם האחר.
-&lt;br&gt;השתמש בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.</t>
-  </si>
-  <si>
-    <t>אנא דווח על מידת הדמיון שאתה חווה בינך לבין האדם האחר.
-&lt;br&gt;השתמש בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.</t>
-  </si>
-  <si>
     <t>מיוד יוצג פרופיל של משתתף חדש. התבונן היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
   </si>
   <si>
@@ -499,6 +491,17 @@
   <si>
     <t xml:space="preserve">בשלב הבא יוצגו שני מעגלים, אלו מעגלי דיווח חווית הדמיון. עליך להשתמש בשני הכפתורים "+" -" על מנת להגדיל או להקטין את מידת החפיפה ביניהם ובכך לדווח עד כמה אתה מרגיש שאתה והאדם המתואר דומים. חפיפה מוחלטת משמעה דמיון גבוה ביותר והיעדר חפיפה משמעו דמיון נמוך ביותר. המצב ההתחלתי של המעגלים יהיה בהיעדר מוחלט של חפיפה.
 </t>
+  </si>
+  <si>
+    <t>כעת יוצג בשנית הפרופיל של אותו משתתף, זה שצפית בו כעת. 
+&lt;br&gt;
+כעת תוכל לעבור מהר יותר בין במאפיינים או ההעדפות ולהתעקב היכן שתרצה. מטרתך נותרת לנסות להכיר את אותו אדם ובסופו של דבר להעריך עד כמה אתה מרגיש שאתם דומים.</t>
+  </si>
+  <si>
+    <t>אנא דווח על מידת הדמיון שאתה חווה בינך לבין האדם האחר. השתמש בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.</t>
+  </si>
+  <si>
+    <t>אנא דווחי על מידת הדמיון שאת חווה בינך לבין האדם האחר. השתמש בכפתורים על מנת לשנות את מידת החפיפה. ככל שמידת החפיפה גדולה יותר - כך הדבר משקף חוויית דמיון גבוהה יותר.</t>
   </si>
 </sst>
 </file>
@@ -864,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,13 +1531,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1633,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1695,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1779,13 +1782,13 @@
         <v>51</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -1800,20 +1803,20 @@
         <v>61</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>63</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>64</v>
@@ -1842,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
